--- a/raw_data/Spanish_WG/[Spanish_WG].xlsx
+++ b/raw_data/Spanish_WG/[Spanish_WG].xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9595" uniqueCount="2416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9596" uniqueCount="2417">
   <si>
     <t>tutu</t>
   </si>
@@ -7269,6 +7269,9 @@
   </si>
   <si>
     <t>function_words</t>
+  </si>
+  <si>
+    <t>complexity_category</t>
   </si>
 </sst>
 </file>
@@ -11833,10 +11836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H768"/>
+  <dimension ref="A1:I768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="H427" sqref="H427"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11851,7 +11854,7 @@
     <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>1982</v>
       </c>
@@ -11876,8 +11879,11 @@
       <c r="H1" s="12" t="s">
         <v>2407</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="11" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -11903,7 +11909,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -11929,7 +11935,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -11955,7 +11961,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -11981,7 +11987,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -12007,7 +12013,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12033,7 +12039,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -12059,7 +12065,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -12085,7 +12091,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -12111,7 +12117,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -12137,7 +12143,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>2329</v>
       </c>
@@ -12163,7 +12169,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -12189,7 +12195,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -12215,7 +12221,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -12241,7 +12247,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>51</v>
       </c>

--- a/raw_data/Spanish_WG/[Spanish_WG].xlsx
+++ b/raw_data/Spanish_WG/[Spanish_WG].xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10025" uniqueCount="2846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10454" uniqueCount="3032">
   <si>
     <t>tutu</t>
   </si>
@@ -8559,6 +8559,564 @@
   </si>
   <si>
     <t>understands; produces</t>
+  </si>
+  <si>
+    <t>gloss</t>
+  </si>
+  <si>
+    <t>mee bee</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>your you</t>
+  </si>
+  <si>
+    <t>Owl</t>
+  </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>Butterfly</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>chicken little</t>
+  </si>
+  <si>
+    <t>Pad</t>
+  </si>
+  <si>
+    <t>Bicycling</t>
+  </si>
+  <si>
+    <t>motorbike</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>sweet candy</t>
+  </si>
+  <si>
+    <t>ice cream</t>
+  </si>
+  <si>
+    <t>orange fruit</t>
+  </si>
+  <si>
+    <t>lolly pop</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>soda water</t>
+  </si>
+  <si>
+    <t>beaver</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>socks</t>
+  </si>
+  <si>
+    <t>breeches</t>
+  </si>
+  <si>
+    <t>closure</t>
+  </si>
+  <si>
+    <t>lenses</t>
+  </si>
+  <si>
+    <t>honeycomb</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>arms</t>
+  </si>
+  <si>
+    <t>fingers</t>
+  </si>
+  <si>
+    <t>teeth</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>hands1</t>
+  </si>
+  <si>
+    <t>eyes</t>
+  </si>
+  <si>
+    <t>belly button</t>
+  </si>
+  <si>
+    <t>ears</t>
+  </si>
+  <si>
+    <t>belly</t>
+  </si>
+  <si>
+    <t>legs</t>
+  </si>
+  <si>
+    <t>air balloon</t>
+  </si>
+  <si>
+    <t>baby doll</t>
+  </si>
+  <si>
+    <t>little bear</t>
+  </si>
+  <si>
+    <t>garbage can</t>
+  </si>
+  <si>
+    <t>stock exchange</t>
+  </si>
+  <si>
+    <t>brush tool</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>measurement</t>
+  </si>
+  <si>
+    <t>hair comb</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>pair of scissors</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>drinking glass</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>kitchen room</t>
+  </si>
+  <si>
+    <t>fourth</t>
+  </si>
+  <si>
+    <t>baby cot</t>
+  </si>
+  <si>
+    <t>washbasin</t>
+  </si>
+  <si>
+    <t>table top</t>
+  </si>
+  <si>
+    <t>gate</t>
+  </si>
+  <si>
+    <t>embroider</t>
+  </si>
+  <si>
+    <t>Sprin</t>
+  </si>
+  <si>
+    <t>living room</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>tub</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>heaven</t>
+  </si>
+  <si>
+    <t>Stars</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>grandmother</t>
+  </si>
+  <si>
+    <t>grandfather</t>
+  </si>
+  <si>
+    <t>baby boy</t>
+  </si>
+  <si>
+    <t>lullaby</t>
+  </si>
+  <si>
+    <t>mrs</t>
+  </si>
+  <si>
+    <t>little kisses</t>
+  </si>
+  <si>
+    <t>good day</t>
+  </si>
+  <si>
+    <t>thank you</t>
+  </si>
+  <si>
+    <t>do not</t>
+  </si>
+  <si>
+    <t>I porfavo</t>
+  </si>
+  <si>
+    <t>bless you</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>shut down</t>
+  </si>
+  <si>
+    <t>winnow</t>
+  </si>
+  <si>
+    <t>to help</t>
+  </si>
+  <si>
+    <t>to dance</t>
+  </si>
+  <si>
+    <t>to hop</t>
+  </si>
+  <si>
+    <t>to fall</t>
+  </si>
+  <si>
+    <t>to sing</t>
+  </si>
+  <si>
+    <t>to have dinner</t>
+  </si>
+  <si>
+    <t>to close</t>
+  </si>
+  <si>
+    <t>to eat</t>
+  </si>
+  <si>
+    <t>to give</t>
+  </si>
+  <si>
+    <t>to say</t>
+  </si>
+  <si>
+    <t>to draw</t>
+  </si>
+  <si>
+    <t>ache</t>
+  </si>
+  <si>
+    <t>to sleep</t>
+  </si>
+  <si>
+    <t>to teach</t>
+  </si>
+  <si>
+    <t>i wrote</t>
+  </si>
+  <si>
+    <t>go to</t>
+  </si>
+  <si>
+    <t>to play</t>
+  </si>
+  <si>
+    <t>mourn</t>
+  </si>
+  <si>
+    <t>get into</t>
+  </si>
+  <si>
+    <t>to see</t>
+  </si>
+  <si>
+    <t>to get wet</t>
+  </si>
+  <si>
+    <t>to bit</t>
+  </si>
+  <si>
+    <t>to stop</t>
+  </si>
+  <si>
+    <t>to hit</t>
+  </si>
+  <si>
+    <t>to paint</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>put on</t>
+  </si>
+  <si>
+    <t>switch on</t>
+  </si>
+  <si>
+    <t>want to</t>
+  </si>
+  <si>
+    <t>to break</t>
+  </si>
+  <si>
+    <t>put off</t>
+  </si>
+  <si>
+    <t>dry up</t>
+  </si>
+  <si>
+    <t>to blow</t>
+  </si>
+  <si>
+    <t>to go up</t>
+  </si>
+  <si>
+    <t>to have</t>
+  </si>
+  <si>
+    <t>to throw</t>
+  </si>
+  <si>
+    <t>to touch</t>
+  </si>
+  <si>
+    <t>to take</t>
+  </si>
+  <si>
+    <t>does he work</t>
+  </si>
+  <si>
+    <t>to be</t>
+  </si>
+  <si>
+    <t>right now</t>
+  </si>
+  <si>
+    <t>after then</t>
+  </si>
+  <si>
+    <t>on tomorrow</t>
+  </si>
+  <si>
+    <t>Earliest</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>nice one</t>
+  </si>
+  <si>
+    <t>Hot and</t>
+  </si>
+  <si>
+    <t>tired out</t>
+  </si>
+  <si>
+    <t>watch out</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>you sick</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>handsome man</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>cleaned up</t>
+  </si>
+  <si>
+    <t>filled with</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>brand new</t>
+  </si>
+  <si>
+    <t>dark one</t>
+  </si>
+  <si>
+    <t>little bit</t>
+  </si>
+  <si>
+    <t>broken up</t>
+  </si>
+  <si>
+    <t>thirst</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>old age</t>
+  </si>
+  <si>
+    <t>that one</t>
+  </si>
+  <si>
+    <t>EL1</t>
+  </si>
+  <si>
+    <t>this is to</t>
+  </si>
+  <si>
+    <t>those ones</t>
+  </si>
+  <si>
+    <t>this one</t>
+  </si>
+  <si>
+    <t>this thing</t>
+  </si>
+  <si>
+    <t>these ones</t>
+  </si>
+  <si>
+    <t>my own</t>
+  </si>
+  <si>
+    <t>does your</t>
+  </si>
+  <si>
+    <t>you already</t>
+  </si>
+  <si>
+    <t>yours</t>
+  </si>
+  <si>
+    <t>of your own</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>such as</t>
+  </si>
+  <si>
+    <t>which one</t>
+  </si>
+  <si>
+    <t>because of</t>
+  </si>
+  <si>
+    <t>what the</t>
+  </si>
+  <si>
+    <t>one who</t>
+  </si>
+  <si>
+    <t>the ones</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>a lot</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>there is no</t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>as well</t>
+  </si>
+  <si>
+    <t>all round</t>
+  </si>
+  <si>
+    <t>already</t>
+  </si>
+  <si>
+    <t>down below</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>out site</t>
+  </si>
+  <si>
+    <t>in there</t>
+  </si>
+  <si>
+    <t>it here</t>
+  </si>
+  <si>
+    <t>side up</t>
+  </si>
+  <si>
+    <t>in back</t>
+  </si>
+  <si>
+    <t>on top</t>
+  </si>
+  <si>
+    <t>for a</t>
+  </si>
+  <si>
+    <t>oh</t>
   </si>
 </sst>
 </file>
@@ -8667,9 +9225,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2048">
+  <cellStyleXfs count="2058">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10746,7 +11314,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2048">
+  <cellStyles count="2058">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -11770,6 +12338,11 @@
     <cellStyle name="Followed Hyperlink" xfId="2043" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2045" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2047" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2049" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2051" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2053" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2055" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2057" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -12793,6 +13366,11 @@
     <cellStyle name="Hyperlink" xfId="2042" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2044" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2046" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2048" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2050" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2052" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2054" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2056" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
@@ -13123,10 +13701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J768"/>
+  <dimension ref="A1:K768"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13138,10 +13716,11 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
         <v>2416</v>
       </c>
@@ -13166,14 +13745,17 @@
       <c r="H1" s="11" t="s">
         <v>1980</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
+        <v>2846</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>2406</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>2415</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>2417</v>
       </c>
@@ -13199,10 +13781,13 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>2418</v>
       </c>
@@ -13228,10 +13813,13 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
+        <v>3031</v>
+      </c>
+      <c r="J3" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2419</v>
       </c>
@@ -13257,10 +13845,13 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
+        <v>2847</v>
+      </c>
+      <c r="J4" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>2420</v>
       </c>
@@ -13286,10 +13877,13 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>2421</v>
       </c>
@@ -13315,10 +13909,13 @@
         <v>7</v>
       </c>
       <c r="I6" t="s">
+        <v>2848</v>
+      </c>
+      <c r="J6" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>2422</v>
       </c>
@@ -13344,10 +13941,13 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="J7" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>2423</v>
       </c>
@@ -13373,10 +13973,13 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>2424</v>
       </c>
@@ -13402,10 +14005,13 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
+        <v>1986</v>
+      </c>
+      <c r="J9" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>2425</v>
       </c>
@@ -13431,10 +14037,13 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>2426</v>
       </c>
@@ -13460,10 +14069,13 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>2427</v>
       </c>
@@ -13489,10 +14101,13 @@
         <v>2329</v>
       </c>
       <c r="I12" t="s">
+        <v>2329</v>
+      </c>
+      <c r="J12" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>2428</v>
       </c>
@@ -13518,10 +14133,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
+        <v>2849</v>
+      </c>
+      <c r="J13" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>2429</v>
       </c>
@@ -13547,10 +14165,13 @@
         <v>53</v>
       </c>
       <c r="I14" t="s">
+        <v>792</v>
+      </c>
+      <c r="J14" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>2430</v>
       </c>
@@ -13576,10 +14197,13 @@
         <v>52</v>
       </c>
       <c r="I15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>2431</v>
       </c>
@@ -13605,10 +14229,13 @@
         <v>51</v>
       </c>
       <c r="I16" t="s">
+        <v>1997</v>
+      </c>
+      <c r="J16" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>2432</v>
       </c>
@@ -13634,10 +14261,13 @@
         <v>50</v>
       </c>
       <c r="I17" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J17" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>2433</v>
       </c>
@@ -13663,10 +14293,13 @@
         <v>48</v>
       </c>
       <c r="I18" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J18" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>2434</v>
       </c>
@@ -13692,10 +14325,13 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
+        <v>2850</v>
+      </c>
+      <c r="J19" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>2435</v>
       </c>
@@ -13721,10 +14357,13 @@
         <v>45</v>
       </c>
       <c r="I20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J20" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>2436</v>
       </c>
@@ -13750,10 +14389,13 @@
         <v>44</v>
       </c>
       <c r="I21" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J21" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>2437</v>
       </c>
@@ -13779,10 +14421,13 @@
         <v>2330</v>
       </c>
       <c r="I22" t="s">
+        <v>2851</v>
+      </c>
+      <c r="J22" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>2438</v>
       </c>
@@ -13808,10 +14453,13 @@
         <v>41</v>
       </c>
       <c r="I23" t="s">
+        <v>2852</v>
+      </c>
+      <c r="J23" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>2439</v>
       </c>
@@ -13837,10 +14485,13 @@
         <v>2331</v>
       </c>
       <c r="I24" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J24" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>2440</v>
       </c>
@@ -13866,10 +14517,13 @@
         <v>38</v>
       </c>
       <c r="I25" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J25" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>2441</v>
       </c>
@@ -13895,10 +14549,13 @@
         <v>36</v>
       </c>
       <c r="I26" t="s">
+        <v>897</v>
+      </c>
+      <c r="J26" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>2442</v>
       </c>
@@ -13924,10 +14581,13 @@
         <v>2332</v>
       </c>
       <c r="I27" t="s">
+        <v>2332</v>
+      </c>
+      <c r="J27" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>2443</v>
       </c>
@@ -13953,10 +14613,13 @@
         <v>2333</v>
       </c>
       <c r="I28" t="s">
+        <v>2333</v>
+      </c>
+      <c r="J28" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>2444</v>
       </c>
@@ -13982,10 +14645,13 @@
         <v>33</v>
       </c>
       <c r="I29" t="s">
+        <v>718</v>
+      </c>
+      <c r="J29" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>2445</v>
       </c>
@@ -14011,10 +14677,13 @@
         <v>32</v>
       </c>
       <c r="I30" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J30" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>2446</v>
       </c>
@@ -14040,10 +14709,13 @@
         <v>31</v>
       </c>
       <c r="I31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>2447</v>
       </c>
@@ -14069,10 +14741,13 @@
         <v>30</v>
       </c>
       <c r="I32" t="s">
+        <v>1857</v>
+      </c>
+      <c r="J32" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>2448</v>
       </c>
@@ -14098,10 +14773,13 @@
         <v>2334</v>
       </c>
       <c r="I33" t="s">
+        <v>2853</v>
+      </c>
+      <c r="J33" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>2449</v>
       </c>
@@ -14127,10 +14805,13 @@
         <v>28</v>
       </c>
       <c r="I34" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J34" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>2450</v>
       </c>
@@ -14156,10 +14837,13 @@
         <v>27</v>
       </c>
       <c r="I35" t="s">
+        <v>2002</v>
+      </c>
+      <c r="J35" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>2451</v>
       </c>
@@ -14185,10 +14869,13 @@
         <v>25</v>
       </c>
       <c r="I36" t="s">
+        <v>1902</v>
+      </c>
+      <c r="J36" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>2452</v>
       </c>
@@ -14214,10 +14901,13 @@
         <v>24</v>
       </c>
       <c r="I37" t="s">
+        <v>810</v>
+      </c>
+      <c r="J37" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>2453</v>
       </c>
@@ -14243,10 +14933,13 @@
         <v>23</v>
       </c>
       <c r="I38" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J38" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>2454</v>
       </c>
@@ -14272,10 +14965,13 @@
         <v>22</v>
       </c>
       <c r="I39" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J39" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>2455</v>
       </c>
@@ -14301,10 +14997,13 @@
         <v>2335</v>
       </c>
       <c r="I40" t="s">
+        <v>2854</v>
+      </c>
+      <c r="J40" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>2456</v>
       </c>
@@ -14330,10 +15029,13 @@
         <v>2336</v>
       </c>
       <c r="I41" t="s">
+        <v>2336</v>
+      </c>
+      <c r="J41" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>2457</v>
       </c>
@@ -14359,10 +15061,13 @@
         <v>19</v>
       </c>
       <c r="I42" t="s">
+        <v>2855</v>
+      </c>
+      <c r="J42" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>2458</v>
       </c>
@@ -14388,10 +15093,13 @@
         <v>18</v>
       </c>
       <c r="I43" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J43" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>2459</v>
       </c>
@@ -14417,10 +15125,13 @@
         <v>1102</v>
       </c>
       <c r="I44" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J44" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>2460</v>
       </c>
@@ -14446,10 +15157,13 @@
         <v>17</v>
       </c>
       <c r="I45" t="s">
+        <v>2856</v>
+      </c>
+      <c r="J45" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>2461</v>
       </c>
@@ -14475,10 +15189,13 @@
         <v>16</v>
       </c>
       <c r="I46" t="s">
+        <v>1736</v>
+      </c>
+      <c r="J46" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>2462</v>
       </c>
@@ -14504,10 +15221,13 @@
         <v>15</v>
       </c>
       <c r="I47" t="s">
+        <v>1787</v>
+      </c>
+      <c r="J47" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>2463</v>
       </c>
@@ -14533,10 +15253,13 @@
         <v>14</v>
       </c>
       <c r="I48" t="s">
+        <v>974</v>
+      </c>
+      <c r="J48" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>2464</v>
       </c>
@@ -14562,10 +15285,13 @@
         <v>13</v>
       </c>
       <c r="I49" t="s">
+        <v>999</v>
+      </c>
+      <c r="J49" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>2465</v>
       </c>
@@ -14591,10 +15317,13 @@
         <v>66</v>
       </c>
       <c r="I50" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>2466</v>
       </c>
@@ -14620,10 +15349,13 @@
         <v>65</v>
       </c>
       <c r="I51" t="s">
+        <v>824</v>
+      </c>
+      <c r="J51" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>2467</v>
       </c>
@@ -14649,10 +15381,13 @@
         <v>2337</v>
       </c>
       <c r="I52" t="s">
+        <v>2857</v>
+      </c>
+      <c r="J52" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>2468</v>
       </c>
@@ -14678,10 +15413,13 @@
         <v>2338</v>
       </c>
       <c r="I53" t="s">
+        <v>2338</v>
+      </c>
+      <c r="J53" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>2469</v>
       </c>
@@ -14707,10 +15445,13 @@
         <v>62</v>
       </c>
       <c r="I54" t="s">
+        <v>62</v>
+      </c>
+      <c r="J54" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>2470</v>
       </c>
@@ -14736,10 +15477,13 @@
         <v>2339</v>
       </c>
       <c r="I55" t="s">
+        <v>2339</v>
+      </c>
+      <c r="J55" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>2471</v>
       </c>
@@ -14765,10 +15509,13 @@
         <v>60</v>
       </c>
       <c r="I56" t="s">
+        <v>890</v>
+      </c>
+      <c r="J56" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>2472</v>
       </c>
@@ -14794,10 +15541,13 @@
         <v>58</v>
       </c>
       <c r="I57" t="s">
+        <v>2858</v>
+      </c>
+      <c r="J57" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>2473</v>
       </c>
@@ -14823,10 +15573,13 @@
         <v>56</v>
       </c>
       <c r="I58" t="s">
+        <v>1769</v>
+      </c>
+      <c r="J58" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>2474</v>
       </c>
@@ -14852,10 +15605,13 @@
         <v>68</v>
       </c>
       <c r="I59" t="s">
+        <v>2859</v>
+      </c>
+      <c r="J59" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>2475</v>
       </c>
@@ -14881,10 +15637,13 @@
         <v>69</v>
       </c>
       <c r="I60" t="s">
+        <v>2018</v>
+      </c>
+      <c r="J60" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>2476</v>
       </c>
@@ -14910,10 +15669,13 @@
         <v>70</v>
       </c>
       <c r="I61" t="s">
+        <v>70</v>
+      </c>
+      <c r="J61" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>2477</v>
       </c>
@@ -14939,10 +15701,13 @@
         <v>73</v>
       </c>
       <c r="I62" t="s">
+        <v>951</v>
+      </c>
+      <c r="J62" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>2478</v>
       </c>
@@ -14968,10 +15733,13 @@
         <v>75</v>
       </c>
       <c r="I63" t="s">
+        <v>1321</v>
+      </c>
+      <c r="J63" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>2479</v>
       </c>
@@ -14997,10 +15765,13 @@
         <v>76</v>
       </c>
       <c r="I64" t="s">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>2480</v>
       </c>
@@ -15026,10 +15797,13 @@
         <v>79</v>
       </c>
       <c r="I65" t="s">
+        <v>2045</v>
+      </c>
+      <c r="J65" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>2481</v>
       </c>
@@ -15055,10 +15829,13 @@
         <v>81</v>
       </c>
       <c r="I66" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J66" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>2482</v>
       </c>
@@ -15084,10 +15861,13 @@
         <v>82</v>
       </c>
       <c r="I67" t="s">
+        <v>2860</v>
+      </c>
+      <c r="J67" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>2483</v>
       </c>
@@ -15113,10 +15893,13 @@
         <v>2340</v>
       </c>
       <c r="I68" t="s">
+        <v>2340</v>
+      </c>
+      <c r="J68" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>2484</v>
       </c>
@@ -15142,10 +15925,13 @@
         <v>89</v>
       </c>
       <c r="I69" t="s">
+        <v>963</v>
+      </c>
+      <c r="J69" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>2485</v>
       </c>
@@ -15171,10 +15957,13 @@
         <v>92</v>
       </c>
       <c r="I70" t="s">
+        <v>2861</v>
+      </c>
+      <c r="J70" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>2486</v>
       </c>
@@ -15200,10 +15989,13 @@
         <v>95</v>
       </c>
       <c r="I71" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J71" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>2487</v>
       </c>
@@ -15229,10 +16021,13 @@
         <v>96</v>
       </c>
       <c r="I72" t="s">
+        <v>2047</v>
+      </c>
+      <c r="J72" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>2488</v>
       </c>
@@ -15258,10 +16053,13 @@
         <v>97</v>
       </c>
       <c r="I73" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J73" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>2489</v>
       </c>
@@ -15287,10 +16085,13 @@
         <v>98</v>
       </c>
       <c r="I74" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J74" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>2490</v>
       </c>
@@ -15316,10 +16117,13 @@
         <v>103</v>
       </c>
       <c r="I75" t="s">
+        <v>722</v>
+      </c>
+      <c r="J75" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>2491</v>
       </c>
@@ -15345,10 +16149,13 @@
         <v>106</v>
       </c>
       <c r="I76" t="s">
+        <v>2862</v>
+      </c>
+      <c r="J76" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>2492</v>
       </c>
@@ -15374,10 +16181,13 @@
         <v>107</v>
       </c>
       <c r="I77" t="s">
+        <v>2863</v>
+      </c>
+      <c r="J77" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>2493</v>
       </c>
@@ -15403,10 +16213,13 @@
         <v>109</v>
       </c>
       <c r="I78" t="s">
+        <v>837</v>
+      </c>
+      <c r="J78" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>2494</v>
       </c>
@@ -15432,10 +16245,13 @@
         <v>114</v>
       </c>
       <c r="I79" t="s">
+        <v>114</v>
+      </c>
+      <c r="J79" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>2495</v>
       </c>
@@ -15461,10 +16277,13 @@
         <v>117</v>
       </c>
       <c r="I80" t="s">
+        <v>767</v>
+      </c>
+      <c r="J80" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>2496</v>
       </c>
@@ -15490,10 +16309,13 @@
         <v>118</v>
       </c>
       <c r="I81" t="s">
+        <v>2864</v>
+      </c>
+      <c r="J81" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>2497</v>
       </c>
@@ -15519,10 +16341,13 @@
         <v>2341</v>
       </c>
       <c r="I82" t="s">
+        <v>2341</v>
+      </c>
+      <c r="J82" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>2498</v>
       </c>
@@ -15548,10 +16373,13 @@
         <v>120</v>
       </c>
       <c r="I83" t="s">
+        <v>911</v>
+      </c>
+      <c r="J83" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>2499</v>
       </c>
@@ -15577,10 +16405,13 @@
         <v>122</v>
       </c>
       <c r="I84" t="s">
+        <v>122</v>
+      </c>
+      <c r="J84" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>2500</v>
       </c>
@@ -15606,10 +16437,13 @@
         <v>125</v>
       </c>
       <c r="I85" t="s">
+        <v>2865</v>
+      </c>
+      <c r="J85" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>2501</v>
       </c>
@@ -15635,10 +16469,13 @@
         <v>126</v>
       </c>
       <c r="I86" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J86" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>2502</v>
       </c>
@@ -15664,10 +16501,13 @@
         <v>130</v>
       </c>
       <c r="I87" t="s">
+        <v>130</v>
+      </c>
+      <c r="J87" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>2503</v>
       </c>
@@ -15693,10 +16533,13 @@
         <v>131</v>
       </c>
       <c r="I88" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J88" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>2504</v>
       </c>
@@ -15722,10 +16565,13 @@
         <v>207</v>
       </c>
       <c r="I89" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J89" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>2505</v>
       </c>
@@ -15751,10 +16597,13 @@
         <v>206</v>
       </c>
       <c r="I90" t="s">
+        <v>2866</v>
+      </c>
+      <c r="J90" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>2506</v>
       </c>
@@ -15780,10 +16629,13 @@
         <v>204</v>
       </c>
       <c r="I91" t="s">
+        <v>829</v>
+      </c>
+      <c r="J91" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>2507</v>
       </c>
@@ -15809,10 +16661,13 @@
         <v>136</v>
       </c>
       <c r="I92" t="s">
+        <v>2867</v>
+      </c>
+      <c r="J92" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>2508</v>
       </c>
@@ -15838,10 +16693,13 @@
         <v>2342</v>
       </c>
       <c r="I93" t="s">
+        <v>2868</v>
+      </c>
+      <c r="J93" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>2509</v>
       </c>
@@ -15867,10 +16725,13 @@
         <v>139</v>
       </c>
       <c r="I94" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J94" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>2510</v>
       </c>
@@ -15896,10 +16757,13 @@
         <v>142</v>
       </c>
       <c r="I95" t="s">
+        <v>2870</v>
+      </c>
+      <c r="J95" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>2511</v>
       </c>
@@ -15925,10 +16789,13 @@
         <v>143</v>
       </c>
       <c r="I96" t="s">
+        <v>1375</v>
+      </c>
+      <c r="J96" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>2512</v>
       </c>
@@ -15954,10 +16821,13 @@
         <v>144</v>
       </c>
       <c r="I97" t="s">
+        <v>2059</v>
+      </c>
+      <c r="J97" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>2513</v>
       </c>
@@ -15983,10 +16853,13 @@
         <v>147</v>
       </c>
       <c r="I98" t="s">
+        <v>2871</v>
+      </c>
+      <c r="J98" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>2514</v>
       </c>
@@ -16012,10 +16885,13 @@
         <v>149</v>
       </c>
       <c r="I99" t="s">
+        <v>2872</v>
+      </c>
+      <c r="J99" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>2515</v>
       </c>
@@ -16041,10 +16917,13 @@
         <v>2343</v>
       </c>
       <c r="I100" t="s">
+        <v>2343</v>
+      </c>
+      <c r="J100" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>2516</v>
       </c>
@@ -16070,10 +16949,13 @@
         <v>151</v>
       </c>
       <c r="I101" t="s">
+        <v>1438</v>
+      </c>
+      <c r="J101" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>2517</v>
       </c>
@@ -16099,10 +16981,13 @@
         <v>152</v>
       </c>
       <c r="I102" t="s">
+        <v>2873</v>
+      </c>
+      <c r="J102" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>2518</v>
       </c>
@@ -16128,10 +17013,13 @@
         <v>154</v>
       </c>
       <c r="I103" t="s">
+        <v>154</v>
+      </c>
+      <c r="J103" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>2519</v>
       </c>
@@ -16157,10 +17045,13 @@
         <v>2344</v>
       </c>
       <c r="I104" t="s">
+        <v>2344</v>
+      </c>
+      <c r="J104" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>2520</v>
       </c>
@@ -16186,10 +17077,13 @@
         <v>156</v>
       </c>
       <c r="I105" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J105" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>2521</v>
       </c>
@@ -16215,10 +17109,13 @@
         <v>157</v>
       </c>
       <c r="I106" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J106" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>2522</v>
       </c>
@@ -16244,10 +17141,13 @@
         <v>158</v>
       </c>
       <c r="I107" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J107" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>2523</v>
       </c>
@@ -16273,10 +17173,13 @@
         <v>160</v>
       </c>
       <c r="I108" t="s">
+        <v>2069</v>
+      </c>
+      <c r="J108" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>2524</v>
       </c>
@@ -16302,10 +17205,13 @@
         <v>161</v>
       </c>
       <c r="I109" t="s">
+        <v>1352</v>
+      </c>
+      <c r="J109" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>2525</v>
       </c>
@@ -16331,10 +17237,13 @@
         <v>2345</v>
       </c>
       <c r="I110" t="s">
+        <v>2874</v>
+      </c>
+      <c r="J110" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>2526</v>
       </c>
@@ -16360,10 +17269,13 @@
         <v>163</v>
       </c>
       <c r="I111" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J111" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>2527</v>
       </c>
@@ -16389,10 +17301,13 @@
         <v>164</v>
       </c>
       <c r="I112" t="s">
+        <v>164</v>
+      </c>
+      <c r="J112" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>2528</v>
       </c>
@@ -16418,10 +17333,13 @@
         <v>165</v>
       </c>
       <c r="I113" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J113" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>2529</v>
       </c>
@@ -16447,10 +17365,13 @@
         <v>166</v>
       </c>
       <c r="I114" t="s">
+        <v>166</v>
+      </c>
+      <c r="J114" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>2530</v>
       </c>
@@ -16476,10 +17397,13 @@
         <v>2346</v>
       </c>
       <c r="I115" t="s">
+        <v>2875</v>
+      </c>
+      <c r="J115" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>2531</v>
       </c>
@@ -16505,10 +17429,13 @@
         <v>168</v>
       </c>
       <c r="I116" t="s">
+        <v>2876</v>
+      </c>
+      <c r="J116" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>2532</v>
       </c>
@@ -16534,10 +17461,13 @@
         <v>172</v>
       </c>
       <c r="I117" t="s">
+        <v>2877</v>
+      </c>
+      <c r="J117" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>2533</v>
       </c>
@@ -16563,10 +17493,13 @@
         <v>2347</v>
       </c>
       <c r="I118" t="s">
+        <v>2878</v>
+      </c>
+      <c r="J118" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>2534</v>
       </c>
@@ -16592,10 +17525,13 @@
         <v>175</v>
       </c>
       <c r="I119" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J119" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>2535</v>
       </c>
@@ -16621,10 +17557,13 @@
         <v>176</v>
       </c>
       <c r="I120" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J120" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>2536</v>
       </c>
@@ -16650,10 +17589,13 @@
         <v>177</v>
       </c>
       <c r="I121" t="s">
+        <v>2880</v>
+      </c>
+      <c r="J121" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>2537</v>
       </c>
@@ -16679,10 +17621,13 @@
         <v>2348</v>
       </c>
       <c r="I122" t="s">
+        <v>2881</v>
+      </c>
+      <c r="J122" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>2538</v>
       </c>
@@ -16708,10 +17653,13 @@
         <v>179</v>
       </c>
       <c r="I123" t="s">
+        <v>2882</v>
+      </c>
+      <c r="J123" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>2539</v>
       </c>
@@ -16737,10 +17685,13 @@
         <v>180</v>
       </c>
       <c r="I124" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J124" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>2540</v>
       </c>
@@ -16766,10 +17717,13 @@
         <v>182</v>
       </c>
       <c r="I125" t="s">
+        <v>2883</v>
+      </c>
+      <c r="J125" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>2541</v>
       </c>
@@ -16795,10 +17749,13 @@
         <v>183</v>
       </c>
       <c r="I126" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J126" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>2542</v>
       </c>
@@ -16824,10 +17781,13 @@
         <v>184</v>
       </c>
       <c r="I127" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J127" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>2543</v>
       </c>
@@ -16853,10 +17813,13 @@
         <v>190</v>
       </c>
       <c r="I128" t="s">
+        <v>2884</v>
+      </c>
+      <c r="J128" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>2544</v>
       </c>
@@ -16882,10 +17845,13 @@
         <v>192</v>
       </c>
       <c r="I129" t="s">
+        <v>1766</v>
+      </c>
+      <c r="J129" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>2545</v>
       </c>
@@ -16911,10 +17877,13 @@
         <v>193</v>
       </c>
       <c r="I130" t="s">
+        <v>193</v>
+      </c>
+      <c r="J130" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>2546</v>
       </c>
@@ -16940,10 +17909,13 @@
         <v>194</v>
       </c>
       <c r="I131" t="s">
+        <v>827</v>
+      </c>
+      <c r="J131" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>2547</v>
       </c>
@@ -16969,10 +17941,13 @@
         <v>195</v>
       </c>
       <c r="I132" t="s">
+        <v>2885</v>
+      </c>
+      <c r="J132" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>2548</v>
       </c>
@@ -16998,10 +17973,13 @@
         <v>196</v>
       </c>
       <c r="I133" t="s">
+        <v>2886</v>
+      </c>
+      <c r="J133" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>2549</v>
       </c>
@@ -17027,10 +18005,13 @@
         <v>198</v>
       </c>
       <c r="I134" t="s">
+        <v>763</v>
+      </c>
+      <c r="J134" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>2550</v>
       </c>
@@ -17056,10 +18037,13 @@
         <v>202</v>
       </c>
       <c r="I135" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J135" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>2551</v>
       </c>
@@ -17085,10 +18069,13 @@
         <v>2349</v>
       </c>
       <c r="I136" t="s">
+        <v>2349</v>
+      </c>
+      <c r="J136" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>2552</v>
       </c>
@@ -17114,10 +18101,13 @@
         <v>2350</v>
       </c>
       <c r="I137" t="s">
+        <v>2350</v>
+      </c>
+      <c r="J137" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
         <v>2553</v>
       </c>
@@ -17143,10 +18133,13 @@
         <v>211</v>
       </c>
       <c r="I138" t="s">
+        <v>2887</v>
+      </c>
+      <c r="J138" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>2554</v>
       </c>
@@ -17172,10 +18165,13 @@
         <v>2351</v>
       </c>
       <c r="I139" t="s">
+        <v>2888</v>
+      </c>
+      <c r="J139" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>2555</v>
       </c>
@@ -17201,10 +18197,13 @@
         <v>2352</v>
       </c>
       <c r="I140" t="s">
+        <v>2352</v>
+      </c>
+      <c r="J140" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>2556</v>
       </c>
@@ -17230,10 +18229,13 @@
         <v>214</v>
       </c>
       <c r="I141" t="s">
+        <v>833</v>
+      </c>
+      <c r="J141" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>2557</v>
       </c>
@@ -17259,10 +18261,13 @@
         <v>2353</v>
       </c>
       <c r="I142" t="s">
+        <v>2353</v>
+      </c>
+      <c r="J142" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>2558</v>
       </c>
@@ -17288,10 +18293,13 @@
         <v>219</v>
       </c>
       <c r="I143" t="s">
+        <v>2889</v>
+      </c>
+      <c r="J143" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
         <v>2559</v>
       </c>
@@ -17317,10 +18325,13 @@
         <v>221</v>
       </c>
       <c r="I144" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J144" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
         <v>2560</v>
       </c>
@@ -17346,10 +18357,13 @@
         <v>222</v>
       </c>
       <c r="I145" t="s">
+        <v>222</v>
+      </c>
+      <c r="J145" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
         <v>2561</v>
       </c>
@@ -17375,10 +18389,13 @@
         <v>224</v>
       </c>
       <c r="I146" t="s">
+        <v>816</v>
+      </c>
+      <c r="J146" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
         <v>2562</v>
       </c>
@@ -17404,10 +18421,13 @@
         <v>225</v>
       </c>
       <c r="I147" t="s">
+        <v>1471</v>
+      </c>
+      <c r="J147" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
         <v>2563</v>
       </c>
@@ -17433,10 +18453,13 @@
         <v>227</v>
       </c>
       <c r="I148" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J148" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
         <v>2564</v>
       </c>
@@ -17462,10 +18485,13 @@
         <v>2354</v>
       </c>
       <c r="I149" t="s">
+        <v>2354</v>
+      </c>
+      <c r="J149" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
         <v>2565</v>
       </c>
@@ -17491,10 +18517,13 @@
         <v>229</v>
       </c>
       <c r="I150" t="s">
+        <v>1933</v>
+      </c>
+      <c r="J150" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
         <v>2566</v>
       </c>
@@ -17520,10 +18549,13 @@
         <v>230</v>
       </c>
       <c r="I151" t="s">
+        <v>845</v>
+      </c>
+      <c r="J151" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
         <v>2567</v>
       </c>
@@ -17549,10 +18581,13 @@
         <v>231</v>
       </c>
       <c r="I152" t="s">
+        <v>2103</v>
+      </c>
+      <c r="J152" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
         <v>2568</v>
       </c>
@@ -17578,10 +18613,13 @@
         <v>232</v>
       </c>
       <c r="I153" t="s">
+        <v>2890</v>
+      </c>
+      <c r="J153" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
         <v>2569</v>
       </c>
@@ -17607,10 +18645,13 @@
         <v>233</v>
       </c>
       <c r="I154" t="s">
+        <v>1635</v>
+      </c>
+      <c r="J154" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
         <v>2570</v>
       </c>
@@ -17636,10 +18677,13 @@
         <v>2355</v>
       </c>
       <c r="I155" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J155" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
         <v>2571</v>
       </c>
@@ -17665,10 +18709,13 @@
         <v>236</v>
       </c>
       <c r="I156" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J156" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
         <v>2572</v>
       </c>
@@ -17694,10 +18741,13 @@
         <v>2356</v>
       </c>
       <c r="I157" t="s">
+        <v>2891</v>
+      </c>
+      <c r="J157" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
         <v>2573</v>
       </c>
@@ -17723,10 +18773,13 @@
         <v>2357</v>
       </c>
       <c r="I158" t="s">
+        <v>2892</v>
+      </c>
+      <c r="J158" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
         <v>2574</v>
       </c>
@@ -17752,10 +18805,13 @@
         <v>241</v>
       </c>
       <c r="I159" t="s">
+        <v>1445</v>
+      </c>
+      <c r="J159" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
         <v>2575</v>
       </c>
@@ -17781,10 +18837,13 @@
         <v>243</v>
       </c>
       <c r="I160" t="s">
+        <v>2893</v>
+      </c>
+      <c r="J160" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
         <v>2576</v>
       </c>
@@ -17810,10 +18869,13 @@
         <v>246</v>
       </c>
       <c r="I161" t="s">
+        <v>1931</v>
+      </c>
+      <c r="J161" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
         <v>2577</v>
       </c>
@@ -17839,10 +18901,13 @@
         <v>247</v>
       </c>
       <c r="I162" t="s">
+        <v>247</v>
+      </c>
+      <c r="J162" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
         <v>2578</v>
       </c>
@@ -17868,10 +18933,13 @@
         <v>248</v>
       </c>
       <c r="I163" t="s">
+        <v>2894</v>
+      </c>
+      <c r="J163" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
         <v>2579</v>
       </c>
@@ -17897,10 +18965,13 @@
         <v>251</v>
       </c>
       <c r="I164" t="s">
+        <v>984</v>
+      </c>
+      <c r="J164" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
         <v>2580</v>
       </c>
@@ -17926,10 +18997,13 @@
         <v>2358</v>
       </c>
       <c r="I165" t="s">
+        <v>2358</v>
+      </c>
+      <c r="J165" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
         <v>2581</v>
       </c>
@@ -17955,10 +19029,13 @@
         <v>253</v>
       </c>
       <c r="I166" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J166" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
         <v>2582</v>
       </c>
@@ -17984,10 +19061,13 @@
         <v>254</v>
       </c>
       <c r="I167" t="s">
+        <v>2895</v>
+      </c>
+      <c r="J167" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
         <v>2583</v>
       </c>
@@ -18013,10 +19093,13 @@
         <v>255</v>
       </c>
       <c r="I168" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J168" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
         <v>2584</v>
       </c>
@@ -18042,10 +19125,13 @@
         <v>256</v>
       </c>
       <c r="I169" t="s">
+        <v>2896</v>
+      </c>
+      <c r="J169" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
         <v>2585</v>
       </c>
@@ -18071,10 +19157,13 @@
         <v>2359</v>
       </c>
       <c r="I170" t="s">
+        <v>2897</v>
+      </c>
+      <c r="J170" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
         <v>2586</v>
       </c>
@@ -18100,10 +19189,13 @@
         <v>258</v>
       </c>
       <c r="I171" t="s">
+        <v>2110</v>
+      </c>
+      <c r="J171" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
         <v>2587</v>
       </c>
@@ -18129,10 +19221,13 @@
         <v>2360</v>
       </c>
       <c r="I172" t="s">
+        <v>2360</v>
+      </c>
+      <c r="J172" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
         <v>2588</v>
       </c>
@@ -18158,10 +19253,13 @@
         <v>292</v>
       </c>
       <c r="I173" t="s">
+        <v>2898</v>
+      </c>
+      <c r="J173" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
         <v>2589</v>
       </c>
@@ -18187,10 +19285,13 @@
         <v>293</v>
       </c>
       <c r="I174" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J174" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
         <v>2590</v>
       </c>
@@ -18216,10 +19317,13 @@
         <v>294</v>
       </c>
       <c r="I175" t="s">
+        <v>788</v>
+      </c>
+      <c r="J175" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
         <v>2591</v>
       </c>
@@ -18245,10 +19349,13 @@
         <v>296</v>
       </c>
       <c r="I176" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J176" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
         <v>2592</v>
       </c>
@@ -18274,10 +19381,13 @@
         <v>297</v>
       </c>
       <c r="I177" t="s">
+        <v>2899</v>
+      </c>
+      <c r="J177" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
         <v>2593</v>
       </c>
@@ -18303,10 +19413,13 @@
         <v>299</v>
       </c>
       <c r="I178" t="s">
+        <v>2900</v>
+      </c>
+      <c r="J178" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
         <v>2594</v>
       </c>
@@ -18332,10 +19445,13 @@
         <v>300</v>
       </c>
       <c r="I179" t="s">
+        <v>2901</v>
+      </c>
+      <c r="J179" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
         <v>2595</v>
       </c>
@@ -18361,10 +19477,13 @@
         <v>2361</v>
       </c>
       <c r="I180" t="s">
+        <v>2361</v>
+      </c>
+      <c r="J180" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
         <v>2596</v>
       </c>
@@ -18390,10 +19509,13 @@
         <v>302</v>
       </c>
       <c r="I181" t="s">
+        <v>1672</v>
+      </c>
+      <c r="J181" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:10">
       <c r="A182" t="s">
         <v>2597</v>
       </c>
@@ -18419,10 +19541,13 @@
         <v>303</v>
       </c>
       <c r="I182" t="s">
+        <v>1429</v>
+      </c>
+      <c r="J182" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:10">
       <c r="A183" t="s">
         <v>2598</v>
       </c>
@@ -18448,10 +19573,13 @@
         <v>304</v>
       </c>
       <c r="I183" t="s">
+        <v>2902</v>
+      </c>
+      <c r="J183" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:10">
       <c r="A184" t="s">
         <v>2599</v>
       </c>
@@ -18477,10 +19605,13 @@
         <v>307</v>
       </c>
       <c r="I184" t="s">
+        <v>2903</v>
+      </c>
+      <c r="J184" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
         <v>2600</v>
       </c>
@@ -18506,10 +19637,13 @@
         <v>310</v>
       </c>
       <c r="I185" t="s">
+        <v>2904</v>
+      </c>
+      <c r="J185" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:10">
       <c r="A186" t="s">
         <v>2601</v>
       </c>
@@ -18535,10 +19669,13 @@
         <v>2362</v>
       </c>
       <c r="I186" t="s">
+        <v>2905</v>
+      </c>
+      <c r="J186" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
         <v>2602</v>
       </c>
@@ -18564,10 +19701,13 @@
         <v>2363</v>
       </c>
       <c r="I187" t="s">
+        <v>2363</v>
+      </c>
+      <c r="J187" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:10">
       <c r="A188" t="s">
         <v>2603</v>
       </c>
@@ -18593,10 +19733,13 @@
         <v>2364</v>
       </c>
       <c r="I188" t="s">
+        <v>2906</v>
+      </c>
+      <c r="J188" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
         <v>2604</v>
       </c>
@@ -18622,10 +19765,13 @@
         <v>314</v>
       </c>
       <c r="I189" t="s">
+        <v>940</v>
+      </c>
+      <c r="J189" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:10">
       <c r="A190" t="s">
         <v>2605</v>
       </c>
@@ -18651,10 +19797,13 @@
         <v>315</v>
       </c>
       <c r="I190" t="s">
+        <v>2907</v>
+      </c>
+      <c r="J190" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
         <v>2606</v>
       </c>
@@ -18680,10 +19829,13 @@
         <v>317</v>
       </c>
       <c r="I191" t="s">
+        <v>905</v>
+      </c>
+      <c r="J191" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
         <v>2607</v>
       </c>
@@ -18709,10 +19861,13 @@
         <v>319</v>
       </c>
       <c r="I192" t="s">
+        <v>2908</v>
+      </c>
+      <c r="J192" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
         <v>2608</v>
       </c>
@@ -18738,10 +19893,13 @@
         <v>2365</v>
       </c>
       <c r="I193" t="s">
+        <v>2365</v>
+      </c>
+      <c r="J193" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
         <v>2609</v>
       </c>
@@ -18767,10 +19925,13 @@
         <v>321</v>
       </c>
       <c r="I194" t="s">
+        <v>2909</v>
+      </c>
+      <c r="J194" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
         <v>2610</v>
       </c>
@@ -18796,10 +19957,13 @@
         <v>322</v>
       </c>
       <c r="I195" t="s">
+        <v>1853</v>
+      </c>
+      <c r="J195" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
         <v>2611</v>
       </c>
@@ -18825,10 +19989,13 @@
         <v>2366</v>
       </c>
       <c r="I196" t="s">
+        <v>2366</v>
+      </c>
+      <c r="J196" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
         <v>2612</v>
       </c>
@@ -18854,10 +20021,13 @@
         <v>260</v>
       </c>
       <c r="I197" t="s">
+        <v>2910</v>
+      </c>
+      <c r="J197" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>2613</v>
       </c>
@@ -18883,10 +20053,13 @@
         <v>325</v>
       </c>
       <c r="I198" t="s">
+        <v>1674</v>
+      </c>
+      <c r="J198" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
         <v>2614</v>
       </c>
@@ -18912,10 +20085,13 @@
         <v>326</v>
       </c>
       <c r="I199" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J199" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
         <v>2615</v>
       </c>
@@ -18941,10 +20117,13 @@
         <v>327</v>
       </c>
       <c r="I200" t="s">
+        <v>1945</v>
+      </c>
+      <c r="J200" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
         <v>2616</v>
       </c>
@@ -18970,10 +20149,13 @@
         <v>262</v>
       </c>
       <c r="I201" t="s">
+        <v>2912</v>
+      </c>
+      <c r="J201" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
         <v>2617</v>
       </c>
@@ -18999,10 +20181,13 @@
         <v>2367</v>
       </c>
       <c r="I202" t="s">
+        <v>2367</v>
+      </c>
+      <c r="J202" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>2618</v>
       </c>
@@ -19028,10 +20213,13 @@
         <v>331</v>
       </c>
       <c r="I203" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J203" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
         <v>2619</v>
       </c>
@@ -19057,10 +20245,13 @@
         <v>2368</v>
       </c>
       <c r="I204" t="s">
+        <v>2913</v>
+      </c>
+      <c r="J204" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
         <v>2620</v>
       </c>
@@ -19086,10 +20277,13 @@
         <v>333</v>
       </c>
       <c r="I205" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J205" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
         <v>2621</v>
       </c>
@@ -19115,10 +20309,13 @@
         <v>266</v>
       </c>
       <c r="I206" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J206" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
         <v>2622</v>
       </c>
@@ -19144,10 +20341,13 @@
         <v>2369</v>
       </c>
       <c r="I207" t="s">
+        <v>2369</v>
+      </c>
+      <c r="J207" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
         <v>2623</v>
       </c>
@@ -19173,10 +20373,13 @@
         <v>336</v>
       </c>
       <c r="I208" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J208" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
         <v>2624</v>
       </c>
@@ -19202,10 +20405,13 @@
         <v>270</v>
       </c>
       <c r="I209" t="s">
+        <v>1535</v>
+      </c>
+      <c r="J209" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
         <v>2625</v>
       </c>
@@ -19231,10 +20437,13 @@
         <v>271</v>
       </c>
       <c r="I210" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J210" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
         <v>2626</v>
       </c>
@@ -19260,10 +20469,13 @@
         <v>275</v>
       </c>
       <c r="I211" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J211" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
         <v>2627</v>
       </c>
@@ -19289,10 +20501,13 @@
         <v>276</v>
       </c>
       <c r="I212" t="s">
+        <v>942</v>
+      </c>
+      <c r="J212" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
         <v>2628</v>
       </c>
@@ -19318,10 +20533,13 @@
         <v>338</v>
       </c>
       <c r="I213" t="s">
+        <v>1447</v>
+      </c>
+      <c r="J213" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
         <v>2629</v>
       </c>
@@ -19347,10 +20565,13 @@
         <v>280</v>
       </c>
       <c r="I214" t="s">
+        <v>1666</v>
+      </c>
+      <c r="J214" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
         <v>2630</v>
       </c>
@@ -19376,10 +20597,13 @@
         <v>281</v>
       </c>
       <c r="I215" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J215" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
         <v>2631</v>
       </c>
@@ -19405,10 +20629,13 @@
         <v>340</v>
       </c>
       <c r="I216" t="s">
+        <v>782</v>
+      </c>
+      <c r="J216" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
         <v>2632</v>
       </c>
@@ -19434,10 +20661,13 @@
         <v>2370</v>
       </c>
       <c r="I217" t="s">
+        <v>2370</v>
+      </c>
+      <c r="J217" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
         <v>2633</v>
       </c>
@@ -19463,10 +20693,13 @@
         <v>284</v>
       </c>
       <c r="I218" t="s">
+        <v>1680</v>
+      </c>
+      <c r="J218" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
         <v>2634</v>
       </c>
@@ -19492,10 +20725,13 @@
         <v>286</v>
       </c>
       <c r="I219" t="s">
+        <v>2914</v>
+      </c>
+      <c r="J219" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
         <v>2635</v>
       </c>
@@ -19521,10 +20757,13 @@
         <v>2371</v>
       </c>
       <c r="I220" t="s">
+        <v>2371</v>
+      </c>
+      <c r="J220" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
         <v>2636</v>
       </c>
@@ -19550,10 +20789,13 @@
         <v>2372</v>
       </c>
       <c r="I221" t="s">
+        <v>2372</v>
+      </c>
+      <c r="J221" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
         <v>2637</v>
       </c>
@@ -19579,10 +20821,13 @@
         <v>345</v>
       </c>
       <c r="I222" t="s">
+        <v>2915</v>
+      </c>
+      <c r="J222" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
         <v>2638</v>
       </c>
@@ -19608,10 +20853,13 @@
         <v>346</v>
       </c>
       <c r="I223" t="s">
+        <v>2916</v>
+      </c>
+      <c r="J223" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
         <v>2639</v>
       </c>
@@ -19637,10 +20885,13 @@
         <v>349</v>
       </c>
       <c r="I224" t="s">
+        <v>2917</v>
+      </c>
+      <c r="J224" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
         <v>2640</v>
       </c>
@@ -19666,10 +20917,13 @@
         <v>353</v>
       </c>
       <c r="I225" t="s">
+        <v>2171</v>
+      </c>
+      <c r="J225" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
         <v>2641</v>
       </c>
@@ -19695,10 +20949,13 @@
         <v>354</v>
       </c>
       <c r="I226" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J226" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
         <v>2642</v>
       </c>
@@ -19724,10 +20981,13 @@
         <v>355</v>
       </c>
       <c r="I227" t="s">
+        <v>847</v>
+      </c>
+      <c r="J227" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
         <v>2643</v>
       </c>
@@ -19753,10 +21013,13 @@
         <v>356</v>
       </c>
       <c r="I228" t="s">
+        <v>2172</v>
+      </c>
+      <c r="J228" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
         <v>2644</v>
       </c>
@@ -19782,10 +21045,13 @@
         <v>357</v>
       </c>
       <c r="I229" t="s">
+        <v>1701</v>
+      </c>
+      <c r="J229" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:10">
       <c r="A230" t="s">
         <v>2645</v>
       </c>
@@ -19811,10 +21077,13 @@
         <v>358</v>
       </c>
       <c r="I230" t="s">
+        <v>2070</v>
+      </c>
+      <c r="J230" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:10">
       <c r="A231" t="s">
         <v>2646</v>
       </c>
@@ -19840,10 +21109,13 @@
         <v>359</v>
       </c>
       <c r="I231" t="s">
+        <v>2918</v>
+      </c>
+      <c r="J231" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
         <v>2647</v>
       </c>
@@ -19869,10 +21141,13 @@
         <v>361</v>
       </c>
       <c r="I232" t="s">
+        <v>361</v>
+      </c>
+      <c r="J232" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:10">
       <c r="A233" t="s">
         <v>2648</v>
       </c>
@@ -19898,10 +21173,13 @@
         <v>360</v>
       </c>
       <c r="I233" t="s">
+        <v>360</v>
+      </c>
+      <c r="J233" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:10">
       <c r="A234" t="s">
         <v>2649</v>
       </c>
@@ -19927,10 +21205,13 @@
         <v>2373</v>
       </c>
       <c r="I234" t="s">
+        <v>2373</v>
+      </c>
+      <c r="J234" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:10">
       <c r="A235" t="s">
         <v>2650</v>
       </c>
@@ -19956,10 +21237,13 @@
         <v>363</v>
       </c>
       <c r="I235" t="s">
+        <v>2173</v>
+      </c>
+      <c r="J235" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:10">
       <c r="A236" t="s">
         <v>2651</v>
       </c>
@@ -19985,10 +21269,13 @@
         <v>364</v>
       </c>
       <c r="I236" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J236" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:10">
       <c r="A237" t="s">
         <v>2652</v>
       </c>
@@ -20014,10 +21301,13 @@
         <v>366</v>
       </c>
       <c r="I237" t="s">
+        <v>1951</v>
+      </c>
+      <c r="J237" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:10">
       <c r="A238" t="s">
         <v>2653</v>
       </c>
@@ -20043,10 +21333,13 @@
         <v>370</v>
       </c>
       <c r="I238" t="s">
+        <v>370</v>
+      </c>
+      <c r="J238" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
         <v>2654</v>
       </c>
@@ -20072,10 +21365,13 @@
         <v>371</v>
       </c>
       <c r="I239" t="s">
+        <v>2919</v>
+      </c>
+      <c r="J239" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:10">
       <c r="A240" t="s">
         <v>2655</v>
       </c>
@@ -20101,10 +21397,13 @@
         <v>372</v>
       </c>
       <c r="I240" t="s">
+        <v>372</v>
+      </c>
+      <c r="J240" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:10">
       <c r="A241" t="s">
         <v>2656</v>
       </c>
@@ -20130,10 +21429,13 @@
         <v>373</v>
       </c>
       <c r="I241" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J241" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:10">
       <c r="A242" t="s">
         <v>2657</v>
       </c>
@@ -20159,10 +21461,13 @@
         <v>374</v>
       </c>
       <c r="I242" t="s">
+        <v>374</v>
+      </c>
+      <c r="J242" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:10">
       <c r="A243" t="s">
         <v>2658</v>
       </c>
@@ -20188,10 +21493,13 @@
         <v>2374</v>
       </c>
       <c r="I243" t="s">
+        <v>2374</v>
+      </c>
+      <c r="J243" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:10">
       <c r="A244" t="s">
         <v>2659</v>
       </c>
@@ -20217,10 +21525,13 @@
         <v>379</v>
       </c>
       <c r="I244" t="s">
+        <v>2920</v>
+      </c>
+      <c r="J244" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:10">
       <c r="A245" t="s">
         <v>2660</v>
       </c>
@@ -20246,10 +21557,13 @@
         <v>2375</v>
       </c>
       <c r="I245" t="s">
+        <v>2921</v>
+      </c>
+      <c r="J245" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:10">
       <c r="A246" t="s">
         <v>2661</v>
       </c>
@@ -20275,10 +21589,13 @@
         <v>2376</v>
       </c>
       <c r="I246" t="s">
+        <v>2376</v>
+      </c>
+      <c r="J246" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:10">
       <c r="A247" t="s">
         <v>2662</v>
       </c>
@@ -20304,10 +21621,13 @@
         <v>2377</v>
       </c>
       <c r="I247" t="s">
+        <v>2377</v>
+      </c>
+      <c r="J247" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:10">
       <c r="A248" t="s">
         <v>2663</v>
       </c>
@@ -20333,10 +21653,13 @@
         <v>384</v>
       </c>
       <c r="I248" t="s">
+        <v>2922</v>
+      </c>
+      <c r="J248" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:10">
       <c r="A249" t="s">
         <v>2664</v>
       </c>
@@ -20362,10 +21685,13 @@
         <v>2378</v>
       </c>
       <c r="I249" t="s">
+        <v>600</v>
+      </c>
+      <c r="J249" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:10">
       <c r="A250" t="s">
         <v>2665</v>
       </c>
@@ -20391,10 +21717,13 @@
         <v>385</v>
       </c>
       <c r="I250" t="s">
+        <v>1955</v>
+      </c>
+      <c r="J250" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:10">
       <c r="A251" t="s">
         <v>2666</v>
       </c>
@@ -20420,10 +21749,13 @@
         <v>2379</v>
       </c>
       <c r="I251" t="s">
+        <v>2379</v>
+      </c>
+      <c r="J251" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:10">
       <c r="A252" t="s">
         <v>2667</v>
       </c>
@@ -20449,10 +21781,13 @@
         <v>651</v>
       </c>
       <c r="I252" t="s">
+        <v>2923</v>
+      </c>
+      <c r="J252" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:10">
       <c r="A253" t="s">
         <v>2668</v>
       </c>
@@ -20478,10 +21813,13 @@
         <v>387</v>
       </c>
       <c r="I253" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J253" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:10">
       <c r="A254" t="s">
         <v>2669</v>
       </c>
@@ -20507,10 +21845,13 @@
         <v>2380</v>
       </c>
       <c r="I254" t="s">
+        <v>2924</v>
+      </c>
+      <c r="J254" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:10">
       <c r="A255" t="s">
         <v>2670</v>
       </c>
@@ -20536,10 +21877,13 @@
         <v>391</v>
       </c>
       <c r="I255" t="s">
+        <v>2925</v>
+      </c>
+      <c r="J255" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:10">
       <c r="A256" t="s">
         <v>2671</v>
       </c>
@@ -20565,10 +21909,13 @@
         <v>392</v>
       </c>
       <c r="I256" t="s">
+        <v>392</v>
+      </c>
+      <c r="J256" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:10">
       <c r="A257" t="s">
         <v>2672</v>
       </c>
@@ -20594,10 +21941,13 @@
         <v>656</v>
       </c>
       <c r="I257" t="s">
+        <v>1874</v>
+      </c>
+      <c r="J257" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:10">
       <c r="A258" t="s">
         <v>2673</v>
       </c>
@@ -20623,10 +21973,13 @@
         <v>2381</v>
       </c>
       <c r="I258" t="s">
+        <v>2381</v>
+      </c>
+      <c r="J258" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:10">
       <c r="A259" t="s">
         <v>2674</v>
       </c>
@@ -20652,10 +22005,13 @@
         <v>2382</v>
       </c>
       <c r="I259" t="s">
+        <v>2382</v>
+      </c>
+      <c r="J259" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:10">
       <c r="A260" t="s">
         <v>2675</v>
       </c>
@@ -20681,10 +22037,13 @@
         <v>2383</v>
       </c>
       <c r="I260" t="s">
+        <v>2383</v>
+      </c>
+      <c r="J260" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:10">
       <c r="A261" t="s">
         <v>2676</v>
       </c>
@@ -20710,10 +22069,13 @@
         <v>501</v>
       </c>
       <c r="I261" t="s">
+        <v>2926</v>
+      </c>
+      <c r="J261" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:10">
       <c r="A262" t="s">
         <v>2677</v>
       </c>
@@ -20739,10 +22101,13 @@
         <v>2384</v>
       </c>
       <c r="I262" t="s">
+        <v>2384</v>
+      </c>
+      <c r="J262" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:10">
       <c r="A263" t="s">
         <v>2678</v>
       </c>
@@ -20768,10 +22133,13 @@
         <v>457</v>
       </c>
       <c r="I263" t="s">
+        <v>2927</v>
+      </c>
+      <c r="J263" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:10">
       <c r="A264" t="s">
         <v>2679</v>
       </c>
@@ -20797,10 +22165,13 @@
         <v>458</v>
       </c>
       <c r="I264" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J264" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:10">
       <c r="A265" t="s">
         <v>2680</v>
       </c>
@@ -20826,10 +22197,13 @@
         <v>461</v>
       </c>
       <c r="I265" t="s">
+        <v>2928</v>
+      </c>
+      <c r="J265" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:10">
       <c r="A266" t="s">
         <v>2681</v>
       </c>
@@ -20855,10 +22229,13 @@
         <v>462</v>
       </c>
       <c r="I266" t="s">
+        <v>2929</v>
+      </c>
+      <c r="J266" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:10">
       <c r="A267" t="s">
         <v>2682</v>
       </c>
@@ -20884,10 +22261,13 @@
         <v>463</v>
       </c>
       <c r="I267" t="s">
+        <v>2930</v>
+      </c>
+      <c r="J267" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:10">
       <c r="A268" t="s">
         <v>2683</v>
       </c>
@@ -20913,10 +22293,13 @@
         <v>467</v>
       </c>
       <c r="I268" t="s">
+        <v>2931</v>
+      </c>
+      <c r="J268" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:10">
       <c r="A269" t="s">
         <v>2684</v>
       </c>
@@ -20942,10 +22325,13 @@
         <v>470</v>
       </c>
       <c r="I269" t="s">
+        <v>2932</v>
+      </c>
+      <c r="J269" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:10">
       <c r="A270" t="s">
         <v>2685</v>
       </c>
@@ -20971,10 +22357,13 @@
         <v>472</v>
       </c>
       <c r="I270" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J270" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:10">
       <c r="A271" t="s">
         <v>2686</v>
       </c>
@@ -21000,10 +22389,13 @@
         <v>473</v>
       </c>
       <c r="I271" t="s">
+        <v>2933</v>
+      </c>
+      <c r="J271" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:10">
       <c r="A272" t="s">
         <v>2687</v>
       </c>
@@ -21029,10 +22421,13 @@
         <v>475</v>
       </c>
       <c r="I272" t="s">
+        <v>2934</v>
+      </c>
+      <c r="J272" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:10">
       <c r="A273" t="s">
         <v>2688</v>
       </c>
@@ -21058,10 +22453,13 @@
         <v>476</v>
       </c>
       <c r="I273" t="s">
+        <v>2935</v>
+      </c>
+      <c r="J273" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:10">
       <c r="A274" t="s">
         <v>2689</v>
       </c>
@@ -21087,10 +22485,13 @@
         <v>478</v>
       </c>
       <c r="I274" t="s">
+        <v>2936</v>
+      </c>
+      <c r="J274" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:10">
       <c r="A275" t="s">
         <v>2690</v>
       </c>
@@ -21116,10 +22517,13 @@
         <v>480</v>
       </c>
       <c r="I275" t="s">
+        <v>1557</v>
+      </c>
+      <c r="J275" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:10">
       <c r="A276" t="s">
         <v>2691</v>
       </c>
@@ -21145,10 +22549,13 @@
         <v>482</v>
       </c>
       <c r="I276" t="s">
+        <v>2937</v>
+      </c>
+      <c r="J276" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:10">
       <c r="A277" t="s">
         <v>2692</v>
       </c>
@@ -21174,10 +22581,13 @@
         <v>483</v>
       </c>
       <c r="I277" t="s">
+        <v>2938</v>
+      </c>
+      <c r="J277" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:10">
       <c r="A278" t="s">
         <v>2693</v>
       </c>
@@ -21203,10 +22613,13 @@
         <v>2385</v>
       </c>
       <c r="I278" t="s">
+        <v>2385</v>
+      </c>
+      <c r="J278" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:10">
       <c r="A279" t="s">
         <v>2694</v>
       </c>
@@ -21232,10 +22645,13 @@
         <v>485</v>
       </c>
       <c r="I279" t="s">
+        <v>2939</v>
+      </c>
+      <c r="J279" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:10">
       <c r="A280" t="s">
         <v>2695</v>
       </c>
@@ -21261,10 +22677,13 @@
         <v>486</v>
       </c>
       <c r="I280" t="s">
+        <v>2940</v>
+      </c>
+      <c r="J280" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:10">
       <c r="A281" t="s">
         <v>2696</v>
       </c>
@@ -21290,10 +22709,13 @@
         <v>487</v>
       </c>
       <c r="I281" t="s">
+        <v>2941</v>
+      </c>
+      <c r="J281" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:10">
       <c r="A282" t="s">
         <v>2697</v>
       </c>
@@ -21319,10 +22741,13 @@
         <v>488</v>
       </c>
       <c r="I282" t="s">
+        <v>1525</v>
+      </c>
+      <c r="J282" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:10">
       <c r="A283" t="s">
         <v>2698</v>
       </c>
@@ -21348,10 +22773,13 @@
         <v>490</v>
       </c>
       <c r="I283" t="s">
+        <v>2942</v>
+      </c>
+      <c r="J283" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:10">
       <c r="A284" t="s">
         <v>2699</v>
       </c>
@@ -21377,10 +22805,13 @@
         <v>2386</v>
       </c>
       <c r="I284" t="s">
+        <v>2943</v>
+      </c>
+      <c r="J284" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:10">
       <c r="A285" t="s">
         <v>2700</v>
       </c>
@@ -21406,10 +22837,13 @@
         <v>2387</v>
       </c>
       <c r="I285" t="s">
+        <v>2387</v>
+      </c>
+      <c r="J285" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:10">
       <c r="A286" t="s">
         <v>2701</v>
       </c>
@@ -21435,10 +22869,13 @@
         <v>399</v>
       </c>
       <c r="I286" t="s">
+        <v>2944</v>
+      </c>
+      <c r="J286" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:10">
       <c r="A287" t="s">
         <v>2702</v>
       </c>
@@ -21464,10 +22901,13 @@
         <v>401</v>
       </c>
       <c r="I287" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J287" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:10">
       <c r="A288" t="s">
         <v>2703</v>
       </c>
@@ -21493,10 +22933,13 @@
         <v>404</v>
       </c>
       <c r="I288" t="s">
+        <v>1825</v>
+      </c>
+      <c r="J288" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:10">
       <c r="A289" t="s">
         <v>2704</v>
       </c>
@@ -21522,10 +22965,13 @@
         <v>405</v>
       </c>
       <c r="I289" t="s">
+        <v>1539</v>
+      </c>
+      <c r="J289" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:10">
       <c r="A290" t="s">
         <v>2705</v>
       </c>
@@ -21551,10 +22997,13 @@
         <v>407</v>
       </c>
       <c r="I290" t="s">
+        <v>894</v>
+      </c>
+      <c r="J290" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:10">
       <c r="A291" t="s">
         <v>2706</v>
       </c>
@@ -21580,10 +23029,13 @@
         <v>408</v>
       </c>
       <c r="I291" t="s">
+        <v>2946</v>
+      </c>
+      <c r="J291" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:10">
       <c r="A292" t="s">
         <v>2707</v>
       </c>
@@ -21609,10 +23061,13 @@
         <v>410</v>
       </c>
       <c r="I292" t="s">
+        <v>2947</v>
+      </c>
+      <c r="J292" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:10">
       <c r="A293" t="s">
         <v>2708</v>
       </c>
@@ -21638,10 +23093,13 @@
         <v>411</v>
       </c>
       <c r="I293" t="s">
+        <v>2948</v>
+      </c>
+      <c r="J293" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:10">
       <c r="A294" t="s">
         <v>2709</v>
       </c>
@@ -21667,10 +23125,13 @@
         <v>2388</v>
       </c>
       <c r="I294" t="s">
+        <v>2949</v>
+      </c>
+      <c r="J294" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:10">
       <c r="A295" t="s">
         <v>2710</v>
       </c>
@@ -21696,10 +23157,13 @@
         <v>412</v>
       </c>
       <c r="I295" t="s">
+        <v>2950</v>
+      </c>
+      <c r="J295" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:10">
       <c r="A296" t="s">
         <v>2711</v>
       </c>
@@ -21725,10 +23189,13 @@
         <v>415</v>
       </c>
       <c r="I296" t="s">
+        <v>2951</v>
+      </c>
+      <c r="J296" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:10">
       <c r="A297" t="s">
         <v>2712</v>
       </c>
@@ -21754,10 +23221,13 @@
         <v>418</v>
       </c>
       <c r="I297" t="s">
+        <v>2952</v>
+      </c>
+      <c r="J297" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:10">
       <c r="A298" t="s">
         <v>2713</v>
       </c>
@@ -21783,10 +23253,13 @@
         <v>2389</v>
       </c>
       <c r="I298" t="s">
+        <v>2389</v>
+      </c>
+      <c r="J298" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:10">
       <c r="A299" t="s">
         <v>2714</v>
       </c>
@@ -21812,10 +23285,13 @@
         <v>422</v>
       </c>
       <c r="I299" t="s">
+        <v>2953</v>
+      </c>
+      <c r="J299" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:10">
       <c r="A300" t="s">
         <v>2715</v>
       </c>
@@ -21841,10 +23317,13 @@
         <v>424</v>
       </c>
       <c r="I300" t="s">
+        <v>2954</v>
+      </c>
+      <c r="J300" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:10">
       <c r="A301" t="s">
         <v>2716</v>
       </c>
@@ -21870,10 +23349,13 @@
         <v>425</v>
       </c>
       <c r="I301" t="s">
+        <v>2955</v>
+      </c>
+      <c r="J301" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:10">
       <c r="A302" t="s">
         <v>2717</v>
       </c>
@@ -21899,10 +23381,13 @@
         <v>426</v>
       </c>
       <c r="I302" t="s">
+        <v>2956</v>
+      </c>
+      <c r="J302" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:10">
       <c r="A303" t="s">
         <v>2718</v>
       </c>
@@ -21928,10 +23413,13 @@
         <v>429</v>
       </c>
       <c r="I303" t="s">
+        <v>2957</v>
+      </c>
+      <c r="J303" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:10">
       <c r="A304" t="s">
         <v>2719</v>
       </c>
@@ -21957,10 +23445,13 @@
         <v>432</v>
       </c>
       <c r="I304" t="s">
+        <v>2958</v>
+      </c>
+      <c r="J304" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:10">
       <c r="A305" t="s">
         <v>2720</v>
       </c>
@@ -21986,10 +23477,13 @@
         <v>434</v>
       </c>
       <c r="I305" t="s">
+        <v>2959</v>
+      </c>
+      <c r="J305" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:10">
       <c r="A306" t="s">
         <v>2721</v>
       </c>
@@ -22015,10 +23509,13 @@
         <v>2390</v>
       </c>
       <c r="I306" t="s">
+        <v>2960</v>
+      </c>
+      <c r="J306" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:10">
       <c r="A307" t="s">
         <v>2722</v>
       </c>
@@ -22044,10 +23541,13 @@
         <v>2391</v>
       </c>
       <c r="I307" t="s">
+        <v>2391</v>
+      </c>
+      <c r="J307" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:10">
       <c r="A308" t="s">
         <v>2723</v>
       </c>
@@ -22073,10 +23573,13 @@
         <v>439</v>
       </c>
       <c r="I308" t="s">
+        <v>2961</v>
+      </c>
+      <c r="J308" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:10">
       <c r="A309" t="s">
         <v>2724</v>
       </c>
@@ -22102,10 +23605,13 @@
         <v>440</v>
       </c>
       <c r="I309" t="s">
+        <v>2962</v>
+      </c>
+      <c r="J309" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:10">
       <c r="A310" t="s">
         <v>2725</v>
       </c>
@@ -22131,10 +23637,13 @@
         <v>442</v>
       </c>
       <c r="I310" t="s">
+        <v>2963</v>
+      </c>
+      <c r="J310" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:10">
       <c r="A311" t="s">
         <v>2726</v>
       </c>
@@ -22160,10 +23669,13 @@
         <v>444</v>
       </c>
       <c r="I311" t="s">
+        <v>2964</v>
+      </c>
+      <c r="J311" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:10">
       <c r="A312" t="s">
         <v>2727</v>
       </c>
@@ -22189,10 +23701,13 @@
         <v>445</v>
       </c>
       <c r="I312" t="s">
+        <v>2965</v>
+      </c>
+      <c r="J312" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:10">
       <c r="A313" t="s">
         <v>2728</v>
       </c>
@@ -22218,10 +23733,13 @@
         <v>446</v>
       </c>
       <c r="I313" t="s">
+        <v>2966</v>
+      </c>
+      <c r="J313" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:10">
       <c r="A314" t="s">
         <v>2729</v>
       </c>
@@ -22247,10 +23765,13 @@
         <v>2392</v>
       </c>
       <c r="I314" t="s">
+        <v>2967</v>
+      </c>
+      <c r="J314" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:10">
       <c r="A315" t="s">
         <v>2730</v>
       </c>
@@ -22276,10 +23797,13 @@
         <v>449</v>
       </c>
       <c r="I315" t="s">
+        <v>2948</v>
+      </c>
+      <c r="J315" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:10">
       <c r="A316" t="s">
         <v>2731</v>
       </c>
@@ -22305,10 +23829,13 @@
         <v>502</v>
       </c>
       <c r="I316" t="s">
+        <v>780</v>
+      </c>
+      <c r="J316" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:10">
       <c r="A317" t="s">
         <v>2732</v>
       </c>
@@ -22334,10 +23861,13 @@
         <v>504</v>
       </c>
       <c r="I317" t="s">
+        <v>2968</v>
+      </c>
+      <c r="J317" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:10">
       <c r="A318" t="s">
         <v>2733</v>
       </c>
@@ -22363,10 +23893,13 @@
         <v>568</v>
       </c>
       <c r="I318" t="s">
+        <v>2969</v>
+      </c>
+      <c r="J318" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:10">
       <c r="A319" t="s">
         <v>2734</v>
       </c>
@@ -22392,10 +23925,13 @@
         <v>571</v>
       </c>
       <c r="I319" t="s">
+        <v>1969</v>
+      </c>
+      <c r="J319" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:10">
       <c r="A320" t="s">
         <v>2735</v>
       </c>
@@ -22421,10 +23957,13 @@
         <v>572</v>
       </c>
       <c r="I320" t="s">
+        <v>2970</v>
+      </c>
+      <c r="J320" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:10">
       <c r="A321" t="s">
         <v>2736</v>
       </c>
@@ -22450,10 +23989,13 @@
         <v>573</v>
       </c>
       <c r="I321" t="s">
+        <v>573</v>
+      </c>
+      <c r="J321" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:10">
       <c r="A322" t="s">
         <v>2737</v>
       </c>
@@ -22479,10 +24021,13 @@
         <v>577</v>
       </c>
       <c r="I322" t="s">
+        <v>1748</v>
+      </c>
+      <c r="J322" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:10">
       <c r="A323" t="s">
         <v>2738</v>
       </c>
@@ -22508,10 +24053,13 @@
         <v>578</v>
       </c>
       <c r="I323" t="s">
+        <v>2971</v>
+      </c>
+      <c r="J323" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:10">
       <c r="A324" t="s">
         <v>2739</v>
       </c>
@@ -22537,10 +24085,13 @@
         <v>579</v>
       </c>
       <c r="I324" t="s">
+        <v>1387</v>
+      </c>
+      <c r="J324" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:10">
       <c r="A325" t="s">
         <v>2740</v>
       </c>
@@ -22566,10 +24117,13 @@
         <v>2393</v>
       </c>
       <c r="I325" t="s">
+        <v>2972</v>
+      </c>
+      <c r="J325" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:10">
       <c r="A326" t="s">
         <v>2741</v>
       </c>
@@ -22595,10 +24149,13 @@
         <v>2394</v>
       </c>
       <c r="I326" t="s">
+        <v>2973</v>
+      </c>
+      <c r="J326" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:10">
       <c r="A327" t="s">
         <v>2742</v>
       </c>
@@ -22624,10 +24181,13 @@
         <v>507</v>
       </c>
       <c r="I327" t="s">
+        <v>822</v>
+      </c>
+      <c r="J327" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:10">
       <c r="A328" t="s">
         <v>2743</v>
       </c>
@@ -22653,10 +24213,13 @@
         <v>509</v>
       </c>
       <c r="I328" t="s">
+        <v>2974</v>
+      </c>
+      <c r="J328" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:10">
       <c r="A329" t="s">
         <v>2744</v>
       </c>
@@ -22682,10 +24245,13 @@
         <v>2395</v>
       </c>
       <c r="I329" t="s">
+        <v>2975</v>
+      </c>
+      <c r="J329" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:10">
       <c r="A330" t="s">
         <v>2745</v>
       </c>
@@ -22711,10 +24277,13 @@
         <v>512</v>
       </c>
       <c r="I330" t="s">
+        <v>2976</v>
+      </c>
+      <c r="J330" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:10">
       <c r="A331" t="s">
         <v>2746</v>
       </c>
@@ -22740,10 +24309,13 @@
         <v>514</v>
       </c>
       <c r="I331" t="s">
+        <v>835</v>
+      </c>
+      <c r="J331" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:10">
       <c r="A332" t="s">
         <v>2747</v>
       </c>
@@ -22769,10 +24341,13 @@
         <v>2396</v>
       </c>
       <c r="I332" t="s">
+        <v>2396</v>
+      </c>
+      <c r="J332" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:10">
       <c r="A333" t="s">
         <v>2748</v>
       </c>
@@ -22798,10 +24373,13 @@
         <v>2397</v>
       </c>
       <c r="I333" t="s">
+        <v>2977</v>
+      </c>
+      <c r="J333" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:10">
       <c r="A334" t="s">
         <v>2749</v>
       </c>
@@ -22827,10 +24405,13 @@
         <v>2398</v>
       </c>
       <c r="I334" t="s">
+        <v>2398</v>
+      </c>
+      <c r="J334" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:10">
       <c r="A335" t="s">
         <v>2750</v>
       </c>
@@ -22856,10 +24437,13 @@
         <v>519</v>
       </c>
       <c r="I335" t="s">
+        <v>2978</v>
+      </c>
+      <c r="J335" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:10">
       <c r="A336" t="s">
         <v>2751</v>
       </c>
@@ -22885,10 +24469,13 @@
         <v>521</v>
       </c>
       <c r="I336" t="s">
+        <v>2979</v>
+      </c>
+      <c r="J336" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:10">
       <c r="A337" t="s">
         <v>2752</v>
       </c>
@@ -22914,10 +24501,13 @@
         <v>522</v>
       </c>
       <c r="I337" t="s">
+        <v>2980</v>
+      </c>
+      <c r="J337" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:10">
       <c r="A338" t="s">
         <v>2753</v>
       </c>
@@ -22943,10 +24533,13 @@
         <v>524</v>
       </c>
       <c r="I338" t="s">
+        <v>2282</v>
+      </c>
+      <c r="J338" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:10">
       <c r="A339" t="s">
         <v>2754</v>
       </c>
@@ -22972,10 +24565,13 @@
         <v>526</v>
       </c>
       <c r="I339" t="s">
+        <v>526</v>
+      </c>
+      <c r="J339" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:10">
       <c r="A340" t="s">
         <v>2755</v>
       </c>
@@ -23001,10 +24597,13 @@
         <v>527</v>
       </c>
       <c r="I340" t="s">
+        <v>527</v>
+      </c>
+      <c r="J340" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:10">
       <c r="A341" t="s">
         <v>2756</v>
       </c>
@@ -23030,10 +24629,13 @@
         <v>530</v>
       </c>
       <c r="I341" t="s">
+        <v>2981</v>
+      </c>
+      <c r="J341" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:10">
       <c r="A342" t="s">
         <v>2757</v>
       </c>
@@ -23059,10 +24661,13 @@
         <v>531</v>
       </c>
       <c r="I342" t="s">
+        <v>2982</v>
+      </c>
+      <c r="J342" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:10">
       <c r="A343" t="s">
         <v>2758</v>
       </c>
@@ -23088,10 +24693,13 @@
         <v>532</v>
       </c>
       <c r="I343" t="s">
+        <v>2983</v>
+      </c>
+      <c r="J343" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:10">
       <c r="A344" t="s">
         <v>2759</v>
       </c>
@@ -23117,10 +24725,13 @@
         <v>533</v>
       </c>
       <c r="I344" t="s">
+        <v>2984</v>
+      </c>
+      <c r="J344" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:10">
       <c r="A345" t="s">
         <v>2760</v>
       </c>
@@ -23146,10 +24757,13 @@
         <v>536</v>
       </c>
       <c r="I345" t="s">
+        <v>2985</v>
+      </c>
+      <c r="J345" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:10">
       <c r="A346" t="s">
         <v>2761</v>
       </c>
@@ -23175,10 +24789,13 @@
         <v>538</v>
       </c>
       <c r="I346" t="s">
+        <v>2986</v>
+      </c>
+      <c r="J346" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:10">
       <c r="A347" t="s">
         <v>2762</v>
       </c>
@@ -23204,10 +24821,13 @@
         <v>539</v>
       </c>
       <c r="I347" t="s">
+        <v>759</v>
+      </c>
+      <c r="J347" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:10">
       <c r="A348" t="s">
         <v>2763</v>
       </c>
@@ -23233,10 +24853,13 @@
         <v>2275</v>
       </c>
       <c r="I348" t="s">
+        <v>2987</v>
+      </c>
+      <c r="J348" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:10">
       <c r="A349" t="s">
         <v>2764</v>
       </c>
@@ -23262,10 +24885,13 @@
         <v>545</v>
       </c>
       <c r="I349" t="s">
+        <v>2988</v>
+      </c>
+      <c r="J349" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:10">
       <c r="A350" t="s">
         <v>2765</v>
       </c>
@@ -23291,10 +24917,13 @@
         <v>546</v>
       </c>
       <c r="I350" t="s">
+        <v>2989</v>
+      </c>
+      <c r="J350" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:10">
       <c r="A351" t="s">
         <v>2766</v>
       </c>
@@ -23320,10 +24949,13 @@
         <v>549</v>
       </c>
       <c r="I351" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J351" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:10">
       <c r="A352" t="s">
         <v>2767</v>
       </c>
@@ -23349,10 +24981,13 @@
         <v>2321</v>
       </c>
       <c r="I352" t="s">
+        <v>2990</v>
+      </c>
+      <c r="J352" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:10">
       <c r="A353" t="s">
         <v>2768</v>
       </c>
@@ -23378,10 +25013,13 @@
         <v>553</v>
       </c>
       <c r="I353" t="s">
+        <v>1541</v>
+      </c>
+      <c r="J353" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:10">
       <c r="A354" t="s">
         <v>2769</v>
       </c>
@@ -23407,10 +25045,13 @@
         <v>555</v>
       </c>
       <c r="I354" t="s">
+        <v>2991</v>
+      </c>
+      <c r="J354" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:10">
       <c r="A355" t="s">
         <v>2770</v>
       </c>
@@ -23436,10 +25077,13 @@
         <v>2399</v>
       </c>
       <c r="I355" t="s">
+        <v>2992</v>
+      </c>
+      <c r="J355" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:10">
       <c r="A356" t="s">
         <v>2771</v>
       </c>
@@ -23465,10 +25109,13 @@
         <v>558</v>
       </c>
       <c r="I356" t="s">
+        <v>1642</v>
+      </c>
+      <c r="J356" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:10">
       <c r="A357" t="s">
         <v>2772</v>
       </c>
@@ -23494,10 +25141,13 @@
         <v>559</v>
       </c>
       <c r="I357" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J357" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:10">
       <c r="A358" t="s">
         <v>2773</v>
       </c>
@@ -23523,10 +25173,13 @@
         <v>2400</v>
       </c>
       <c r="I358" t="s">
+        <v>2993</v>
+      </c>
+      <c r="J358" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:10">
       <c r="A359" t="s">
         <v>2774</v>
       </c>
@@ -23552,10 +25205,13 @@
         <v>563</v>
       </c>
       <c r="I359" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J359" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:10">
       <c r="A360" t="s">
         <v>2775</v>
       </c>
@@ -23581,10 +25237,13 @@
         <v>565</v>
       </c>
       <c r="I360" t="s">
+        <v>1804</v>
+      </c>
+      <c r="J360" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:10">
       <c r="A361" t="s">
         <v>2776</v>
       </c>
@@ -23610,10 +25269,13 @@
         <v>566</v>
       </c>
       <c r="I361" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J361" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:10">
       <c r="A362" t="s">
         <v>2777</v>
       </c>
@@ -23639,10 +25301,13 @@
         <v>567</v>
       </c>
       <c r="I362" t="s">
+        <v>2994</v>
+      </c>
+      <c r="J362" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:10">
       <c r="A363" t="s">
         <v>2778</v>
       </c>
@@ -23668,10 +25333,13 @@
         <v>580</v>
       </c>
       <c r="I363" t="s">
+        <v>2995</v>
+      </c>
+      <c r="J363" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:10">
       <c r="A364" t="s">
         <v>2779</v>
       </c>
@@ -23697,10 +25365,13 @@
         <v>581</v>
       </c>
       <c r="I364" t="s">
+        <v>581</v>
+      </c>
+      <c r="J364" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:10">
       <c r="A365" t="s">
         <v>2780</v>
       </c>
@@ -23726,10 +25397,13 @@
         <v>584</v>
       </c>
       <c r="I365" t="s">
+        <v>2996</v>
+      </c>
+      <c r="J365" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:10">
       <c r="A366" t="s">
         <v>2781</v>
       </c>
@@ -23755,10 +25429,13 @@
         <v>585</v>
       </c>
       <c r="I366" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J366" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:10">
       <c r="A367" t="s">
         <v>2782</v>
       </c>
@@ -23784,10 +25461,13 @@
         <v>586</v>
       </c>
       <c r="I367" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J367" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:10">
       <c r="A368" t="s">
         <v>2783</v>
       </c>
@@ -23813,10 +25493,13 @@
         <v>587</v>
       </c>
       <c r="I368" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J368" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:10">
       <c r="A369" t="s">
         <v>2784</v>
       </c>
@@ -23842,10 +25525,13 @@
         <v>588</v>
       </c>
       <c r="I369" t="s">
+        <v>2997</v>
+      </c>
+      <c r="J369" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:10">
       <c r="A370" t="s">
         <v>2785</v>
       </c>
@@ -23871,10 +25557,13 @@
         <v>589</v>
       </c>
       <c r="I370" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J370" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:10">
       <c r="A371" t="s">
         <v>2786</v>
       </c>
@@ -23900,10 +25589,13 @@
         <v>590</v>
       </c>
       <c r="I371" t="s">
+        <v>2995</v>
+      </c>
+      <c r="J371" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:10">
       <c r="A372" t="s">
         <v>2787</v>
       </c>
@@ -23929,10 +25621,13 @@
         <v>591</v>
       </c>
       <c r="I372" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J372" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:10">
       <c r="A373" t="s">
         <v>2788</v>
       </c>
@@ -23958,10 +25653,13 @@
         <v>592</v>
       </c>
       <c r="I373" t="s">
+        <v>2998</v>
+      </c>
+      <c r="J373" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:10">
       <c r="A374" t="s">
         <v>2789</v>
       </c>
@@ -23987,10 +25685,13 @@
         <v>593</v>
       </c>
       <c r="I374" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J374" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:10">
       <c r="A375" t="s">
         <v>2790</v>
       </c>
@@ -24016,10 +25717,13 @@
         <v>594</v>
       </c>
       <c r="I375" t="s">
+        <v>1721</v>
+      </c>
+      <c r="J375" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:10">
       <c r="A376" t="s">
         <v>2791</v>
       </c>
@@ -24045,10 +25749,13 @@
         <v>595</v>
       </c>
       <c r="I376" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J376" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:10">
       <c r="A377" t="s">
         <v>2792</v>
       </c>
@@ -24074,10 +25781,13 @@
         <v>596</v>
       </c>
       <c r="I377" t="s">
+        <v>3000</v>
+      </c>
+      <c r="J377" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:10">
       <c r="A378" t="s">
         <v>2793</v>
       </c>
@@ -24103,10 +25813,13 @@
         <v>597</v>
       </c>
       <c r="I378" t="s">
+        <v>3001</v>
+      </c>
+      <c r="J378" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:10">
       <c r="A379" t="s">
         <v>2794</v>
       </c>
@@ -24132,10 +25845,13 @@
         <v>1207</v>
       </c>
       <c r="I379" t="s">
+        <v>1880</v>
+      </c>
+      <c r="J379" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:10">
       <c r="A380" t="s">
         <v>2795</v>
       </c>
@@ -24161,10 +25877,13 @@
         <v>598</v>
       </c>
       <c r="I380" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J380" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:10">
       <c r="A381" t="s">
         <v>2796</v>
       </c>
@@ -24190,10 +25909,13 @@
         <v>599</v>
       </c>
       <c r="I381" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J381" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:10">
       <c r="A382" t="s">
         <v>2797</v>
       </c>
@@ -24219,10 +25941,13 @@
         <v>600</v>
       </c>
       <c r="I382" t="s">
+        <v>600</v>
+      </c>
+      <c r="J382" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:10">
       <c r="A383" t="s">
         <v>2798</v>
       </c>
@@ -24248,10 +25973,13 @@
         <v>602</v>
       </c>
       <c r="I383" t="s">
+        <v>602</v>
+      </c>
+      <c r="J383" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:10">
       <c r="A384" t="s">
         <v>2799</v>
       </c>
@@ -24277,10 +26005,13 @@
         <v>603</v>
       </c>
       <c r="I384" t="s">
+        <v>603</v>
+      </c>
+      <c r="J384" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:10">
       <c r="A385" t="s">
         <v>2800</v>
       </c>
@@ -24306,10 +26037,13 @@
         <v>604</v>
       </c>
       <c r="I385" t="s">
+        <v>3002</v>
+      </c>
+      <c r="J385" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:10">
       <c r="A386" t="s">
         <v>2801</v>
       </c>
@@ -24335,10 +26069,13 @@
         <v>605</v>
       </c>
       <c r="I386" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J386" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:10">
       <c r="A387" t="s">
         <v>2802</v>
       </c>
@@ -24364,10 +26101,13 @@
         <v>608</v>
       </c>
       <c r="I387" t="s">
+        <v>725</v>
+      </c>
+      <c r="J387" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:10">
       <c r="A388" t="s">
         <v>2803</v>
       </c>
@@ -24393,10 +26133,13 @@
         <v>609</v>
       </c>
       <c r="I388" t="s">
+        <v>1209</v>
+      </c>
+      <c r="J388" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:10">
       <c r="A389" t="s">
         <v>2804</v>
       </c>
@@ -24422,10 +26165,13 @@
         <v>2401</v>
       </c>
       <c r="I389" t="s">
+        <v>2053</v>
+      </c>
+      <c r="J389" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:10">
       <c r="A390" t="s">
         <v>2805</v>
       </c>
@@ -24451,10 +26197,13 @@
         <v>616</v>
       </c>
       <c r="I390" t="s">
+        <v>3003</v>
+      </c>
+      <c r="J390" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:10">
       <c r="A391" t="s">
         <v>2806</v>
       </c>
@@ -24480,10 +26229,13 @@
         <v>617</v>
       </c>
       <c r="I391" t="s">
+        <v>3004</v>
+      </c>
+      <c r="J391" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:10">
       <c r="A392" t="s">
         <v>2807</v>
       </c>
@@ -24509,10 +26261,13 @@
         <v>618</v>
       </c>
       <c r="I392" t="s">
+        <v>3005</v>
+      </c>
+      <c r="J392" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:10">
       <c r="A393" t="s">
         <v>2808</v>
       </c>
@@ -24538,10 +26293,13 @@
         <v>619</v>
       </c>
       <c r="I393" t="s">
+        <v>3006</v>
+      </c>
+      <c r="J393" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:10">
       <c r="A394" t="s">
         <v>2809</v>
       </c>
@@ -24567,10 +26325,13 @@
         <v>620</v>
       </c>
       <c r="I394" t="s">
+        <v>3005</v>
+      </c>
+      <c r="J394" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:10">
       <c r="A395" t="s">
         <v>2810</v>
       </c>
@@ -24596,10 +26357,13 @@
         <v>621</v>
       </c>
       <c r="I395" t="s">
+        <v>3007</v>
+      </c>
+      <c r="J395" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:10">
       <c r="A396" t="s">
         <v>2811</v>
       </c>
@@ -24625,10 +26389,13 @@
         <v>622</v>
       </c>
       <c r="I396" t="s">
+        <v>3008</v>
+      </c>
+      <c r="J396" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:10">
       <c r="A397" t="s">
         <v>2812</v>
       </c>
@@ -24654,10 +26421,13 @@
         <v>623</v>
       </c>
       <c r="I397" t="s">
+        <v>3009</v>
+      </c>
+      <c r="J397" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:10">
       <c r="A398" t="s">
         <v>2813</v>
       </c>
@@ -24683,10 +26453,13 @@
         <v>2402</v>
       </c>
       <c r="I398" t="s">
+        <v>2402</v>
+      </c>
+      <c r="J398" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:10">
       <c r="A399" t="s">
         <v>2814</v>
       </c>
@@ -24712,10 +26485,13 @@
         <v>626</v>
       </c>
       <c r="I399" t="s">
+        <v>3010</v>
+      </c>
+      <c r="J399" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:10">
       <c r="A400" t="s">
         <v>2815</v>
       </c>
@@ -24741,10 +26517,13 @@
         <v>2403</v>
       </c>
       <c r="I400" t="s">
+        <v>3011</v>
+      </c>
+      <c r="J400" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:10">
       <c r="A401" t="s">
         <v>2816</v>
       </c>
@@ -24770,10 +26549,13 @@
         <v>628</v>
       </c>
       <c r="I401" t="s">
+        <v>3012</v>
+      </c>
+      <c r="J401" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:10">
       <c r="A402" t="s">
         <v>2817</v>
       </c>
@@ -24799,10 +26581,13 @@
         <v>632</v>
       </c>
       <c r="I402" t="s">
+        <v>632</v>
+      </c>
+      <c r="J402" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:10">
       <c r="A403" t="s">
         <v>2818</v>
       </c>
@@ -24828,10 +26613,13 @@
         <v>635</v>
       </c>
       <c r="I403" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J403" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:10">
       <c r="A404" t="s">
         <v>2819</v>
       </c>
@@ -24857,10 +26645,13 @@
         <v>636</v>
       </c>
       <c r="I404" t="s">
+        <v>3013</v>
+      </c>
+      <c r="J404" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:10">
       <c r="A405" t="s">
         <v>2820</v>
       </c>
@@ -24886,10 +26677,13 @@
         <v>637</v>
       </c>
       <c r="I405" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J405" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:10">
       <c r="A406" t="s">
         <v>2821</v>
       </c>
@@ -24915,10 +26709,13 @@
         <v>640</v>
       </c>
       <c r="I406" t="s">
+        <v>708</v>
+      </c>
+      <c r="J406" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:10">
       <c r="A407" t="s">
         <v>2822</v>
       </c>
@@ -24944,10 +26741,13 @@
         <v>641</v>
       </c>
       <c r="I407" t="s">
+        <v>708</v>
+      </c>
+      <c r="J407" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:10">
       <c r="A408" t="s">
         <v>2823</v>
       </c>
@@ -24973,10 +26773,13 @@
         <v>642</v>
       </c>
       <c r="I408" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J408" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:10">
       <c r="A409" t="s">
         <v>2824</v>
       </c>
@@ -25002,10 +26805,13 @@
         <v>643</v>
       </c>
       <c r="I409" t="s">
+        <v>3014</v>
+      </c>
+      <c r="J409" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:10">
       <c r="A410" t="s">
         <v>2825</v>
       </c>
@@ -25031,10 +26837,13 @@
         <v>648</v>
       </c>
       <c r="I410" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J410" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:10">
       <c r="A411" t="s">
         <v>2826</v>
       </c>
@@ -25060,10 +26869,13 @@
         <v>649</v>
       </c>
       <c r="I411" t="s">
+        <v>3015</v>
+      </c>
+      <c r="J411" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:10">
       <c r="A412" t="s">
         <v>2827</v>
       </c>
@@ -25089,10 +26901,13 @@
         <v>650</v>
       </c>
       <c r="I412" t="s">
+        <v>3016</v>
+      </c>
+      <c r="J412" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:10">
       <c r="A413" t="s">
         <v>2828</v>
       </c>
@@ -25118,10 +26933,13 @@
         <v>652</v>
       </c>
       <c r="I413" t="s">
+        <v>3017</v>
+      </c>
+      <c r="J413" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:10">
       <c r="A414" t="s">
         <v>2829</v>
       </c>
@@ -25147,10 +26965,13 @@
         <v>653</v>
       </c>
       <c r="I414" t="s">
+        <v>3018</v>
+      </c>
+      <c r="J414" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:10">
       <c r="A415" t="s">
         <v>2830</v>
       </c>
@@ -25176,10 +26997,13 @@
         <v>2404</v>
       </c>
       <c r="I415" t="s">
+        <v>3019</v>
+      </c>
+      <c r="J415" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:10">
       <c r="A416" t="s">
         <v>2831</v>
       </c>
@@ -25205,10 +27029,13 @@
         <v>657</v>
       </c>
       <c r="I416" t="s">
+        <v>3020</v>
+      </c>
+      <c r="J416" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:10">
       <c r="A417" t="s">
         <v>2832</v>
       </c>
@@ -25234,10 +27061,13 @@
         <v>658</v>
       </c>
       <c r="I417" t="s">
+        <v>3021</v>
+      </c>
+      <c r="J417" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:10">
       <c r="A418" t="s">
         <v>2833</v>
       </c>
@@ -25263,10 +27093,13 @@
         <v>659</v>
       </c>
       <c r="I418" t="s">
+        <v>3022</v>
+      </c>
+      <c r="J418" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:10">
       <c r="A419" t="s">
         <v>2834</v>
       </c>
@@ -25292,10 +27125,13 @@
         <v>660</v>
       </c>
       <c r="I419" t="s">
+        <v>3023</v>
+      </c>
+      <c r="J419" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:10">
       <c r="A420" t="s">
         <v>2835</v>
       </c>
@@ -25321,10 +27157,13 @@
         <v>661</v>
       </c>
       <c r="I420" t="s">
+        <v>3024</v>
+      </c>
+      <c r="J420" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:10">
       <c r="A421" t="s">
         <v>2836</v>
       </c>
@@ -25350,10 +27189,13 @@
         <v>662</v>
       </c>
       <c r="I421" t="s">
+        <v>3025</v>
+      </c>
+      <c r="J421" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:10">
       <c r="A422" t="s">
         <v>2837</v>
       </c>
@@ -25379,10 +27221,13 @@
         <v>2405</v>
       </c>
       <c r="I422" t="s">
+        <v>2405</v>
+      </c>
+      <c r="J422" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:10">
       <c r="A423" t="s">
         <v>2838</v>
       </c>
@@ -25408,10 +27253,13 @@
         <v>665</v>
       </c>
       <c r="I423" t="s">
+        <v>3026</v>
+      </c>
+      <c r="J423" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:10">
       <c r="A424" t="s">
         <v>2839</v>
       </c>
@@ -25437,10 +27285,13 @@
         <v>666</v>
       </c>
       <c r="I424" t="s">
+        <v>3027</v>
+      </c>
+      <c r="J424" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:10">
       <c r="A425" t="s">
         <v>2840</v>
       </c>
@@ -25466,10 +27317,13 @@
         <v>667</v>
       </c>
       <c r="I425" t="s">
+        <v>3028</v>
+      </c>
+      <c r="J425" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:10">
       <c r="A426" t="s">
         <v>2841</v>
       </c>
@@ -25495,10 +27349,13 @@
         <v>669</v>
       </c>
       <c r="I426" t="s">
+        <v>3029</v>
+      </c>
+      <c r="J426" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:10">
       <c r="A427" t="s">
         <v>2842</v>
       </c>
@@ -25524,10 +27381,13 @@
         <v>631</v>
       </c>
       <c r="I427" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J427" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:10">
       <c r="A428" t="s">
         <v>2843</v>
       </c>
@@ -25553,10 +27413,13 @@
         <v>633</v>
       </c>
       <c r="I428" t="s">
+        <v>3023</v>
+      </c>
+      <c r="J428" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:10">
       <c r="A429" t="s">
         <v>2844</v>
       </c>
@@ -25582,18 +27445,21 @@
         <v>638</v>
       </c>
       <c r="I429" t="s">
+        <v>3030</v>
+      </c>
+      <c r="J429" t="s">
         <v>2414</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:10">
       <c r="C430" s="3"/>
       <c r="D430" s="10"/>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:10">
       <c r="C431" s="3"/>
       <c r="D431" s="10"/>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:10">
       <c r="C432" s="3"/>
       <c r="D432" s="10"/>
     </row>

--- a/raw_data/Spanish_WG/[Spanish_WG].xlsx
+++ b/raw_data/Spanish_WG/[Spanish_WG].xlsx
@@ -8564,12 +8564,6 @@
     <t>gloss</t>
   </si>
   <si>
-    <t>mee bee</t>
-  </si>
-  <si>
-    <t>Bus</t>
-  </si>
-  <si>
     <t>your you</t>
   </si>
   <si>
@@ -8792,9 +8786,6 @@
     <t>thank you</t>
   </si>
   <si>
-    <t>do not</t>
-  </si>
-  <si>
     <t>I porfavo</t>
   </si>
   <si>
@@ -9116,7 +9107,16 @@
     <t>for a</t>
   </si>
   <si>
-    <t>oh</t>
+    <t>yum yum</t>
+  </si>
+  <si>
+    <t>baa baa</t>
+  </si>
+  <si>
+    <t>woof woof</t>
+  </si>
+  <si>
+    <t>bye bye</t>
   </si>
 </sst>
 </file>
@@ -9225,9 +9225,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2058">
+  <cellStyleXfs count="2070">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11314,7 +11326,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2058">
+  <cellStyles count="2070">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -12343,6 +12355,12 @@
     <cellStyle name="Followed Hyperlink" xfId="2053" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2055" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2057" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2059" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2061" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2063" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2065" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2067" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2069" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -13371,6 +13389,12 @@
     <cellStyle name="Hyperlink" xfId="2052" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2054" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2056" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2058" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2060" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2062" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2064" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2066" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2068" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
@@ -13703,8 +13727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K768"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="I254" sqref="I254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13781,7 +13805,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>3028</v>
       </c>
       <c r="J2" t="s">
         <v>1419</v>
@@ -13813,7 +13837,7 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>3031</v>
+        <v>1421</v>
       </c>
       <c r="J3" t="s">
         <v>1419</v>
@@ -13845,7 +13869,7 @@
         <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>2847</v>
+        <v>3029</v>
       </c>
       <c r="J4" t="s">
         <v>1419</v>
@@ -13909,7 +13933,7 @@
         <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>2848</v>
+        <v>3030</v>
       </c>
       <c r="J6" t="s">
         <v>1419</v>
@@ -13973,7 +13997,7 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>1339</v>
       </c>
       <c r="J8" t="s">
         <v>1419</v>
@@ -14133,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="J13" t="s">
         <v>1419</v>
@@ -14325,7 +14349,7 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="J19" t="s">
         <v>2412</v>
@@ -14421,7 +14445,7 @@
         <v>2330</v>
       </c>
       <c r="I22" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="J22" t="s">
         <v>2412</v>
@@ -14453,7 +14477,7 @@
         <v>41</v>
       </c>
       <c r="I23" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="J23" t="s">
         <v>2412</v>
@@ -14773,7 +14797,7 @@
         <v>2334</v>
       </c>
       <c r="I33" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="J33" t="s">
         <v>2412</v>
@@ -14997,7 +15021,7 @@
         <v>2335</v>
       </c>
       <c r="I40" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="J40" t="s">
         <v>2412</v>
@@ -15061,7 +15085,7 @@
         <v>19</v>
       </c>
       <c r="I42" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="J42" t="s">
         <v>2412</v>
@@ -15157,7 +15181,7 @@
         <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="J45" t="s">
         <v>2412</v>
@@ -15381,7 +15405,7 @@
         <v>2337</v>
       </c>
       <c r="I52" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="J52" t="s">
         <v>2412</v>
@@ -15541,7 +15565,7 @@
         <v>58</v>
       </c>
       <c r="I57" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="J57" t="s">
         <v>2412</v>
@@ -15605,7 +15629,7 @@
         <v>68</v>
       </c>
       <c r="I59" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="J59" t="s">
         <v>2412</v>
@@ -15861,7 +15885,7 @@
         <v>82</v>
       </c>
       <c r="I67" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="J67" t="s">
         <v>2412</v>
@@ -15957,7 +15981,7 @@
         <v>92</v>
       </c>
       <c r="I70" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="J70" t="s">
         <v>2412</v>
@@ -16149,7 +16173,7 @@
         <v>106</v>
       </c>
       <c r="I76" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="J76" t="s">
         <v>2412</v>
@@ -16181,7 +16205,7 @@
         <v>107</v>
       </c>
       <c r="I77" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="J77" t="s">
         <v>2412</v>
@@ -16309,7 +16333,7 @@
         <v>118</v>
       </c>
       <c r="I81" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="J81" t="s">
         <v>2412</v>
@@ -16437,7 +16461,7 @@
         <v>125</v>
       </c>
       <c r="I85" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="J85" t="s">
         <v>2412</v>
@@ -16597,7 +16621,7 @@
         <v>206</v>
       </c>
       <c r="I90" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="J90" t="s">
         <v>2412</v>
@@ -16661,7 +16685,7 @@
         <v>136</v>
       </c>
       <c r="I92" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="J92" t="s">
         <v>2412</v>
@@ -16693,7 +16717,7 @@
         <v>2342</v>
       </c>
       <c r="I93" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="J93" t="s">
         <v>2412</v>
@@ -16725,7 +16749,7 @@
         <v>139</v>
       </c>
       <c r="I94" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="J94" t="s">
         <v>2412</v>
@@ -16757,7 +16781,7 @@
         <v>142</v>
       </c>
       <c r="I95" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="J95" t="s">
         <v>2412</v>
@@ -16853,7 +16877,7 @@
         <v>147</v>
       </c>
       <c r="I98" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="J98" t="s">
         <v>2412</v>
@@ -16885,7 +16909,7 @@
         <v>149</v>
       </c>
       <c r="I99" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="J99" t="s">
         <v>2412</v>
@@ -16981,7 +17005,7 @@
         <v>152</v>
       </c>
       <c r="I102" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="J102" t="s">
         <v>2412</v>
@@ -17237,7 +17261,7 @@
         <v>2345</v>
       </c>
       <c r="I110" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="J110" t="s">
         <v>2412</v>
@@ -17397,7 +17421,7 @@
         <v>2346</v>
       </c>
       <c r="I115" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="J115" t="s">
         <v>2412</v>
@@ -17429,7 +17453,7 @@
         <v>168</v>
       </c>
       <c r="I116" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="J116" t="s">
         <v>2412</v>
@@ -17461,7 +17485,7 @@
         <v>172</v>
       </c>
       <c r="I117" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="J117" t="s">
         <v>2412</v>
@@ -17493,7 +17517,7 @@
         <v>2347</v>
       </c>
       <c r="I118" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="J118" t="s">
         <v>2412</v>
@@ -17557,7 +17581,7 @@
         <v>176</v>
       </c>
       <c r="I120" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="J120" t="s">
         <v>2412</v>
@@ -17589,7 +17613,7 @@
         <v>177</v>
       </c>
       <c r="I121" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="J121" t="s">
         <v>2412</v>
@@ -17621,7 +17645,7 @@
         <v>2348</v>
       </c>
       <c r="I122" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="J122" t="s">
         <v>2412</v>
@@ -17653,7 +17677,7 @@
         <v>179</v>
       </c>
       <c r="I123" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="J123" t="s">
         <v>2412</v>
@@ -17717,7 +17741,7 @@
         <v>182</v>
       </c>
       <c r="I125" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="J125" t="s">
         <v>2412</v>
@@ -17813,7 +17837,7 @@
         <v>190</v>
       </c>
       <c r="I128" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="J128" t="s">
         <v>2412</v>
@@ -17941,7 +17965,7 @@
         <v>195</v>
       </c>
       <c r="I132" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="J132" t="s">
         <v>2412</v>
@@ -17973,7 +17997,7 @@
         <v>196</v>
       </c>
       <c r="I133" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="J133" t="s">
         <v>2412</v>
@@ -18133,7 +18157,7 @@
         <v>211</v>
       </c>
       <c r="I138" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="J138" t="s">
         <v>2412</v>
@@ -18165,7 +18189,7 @@
         <v>2351</v>
       </c>
       <c r="I139" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="J139" t="s">
         <v>2412</v>
@@ -18293,7 +18317,7 @@
         <v>219</v>
       </c>
       <c r="I143" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="J143" t="s">
         <v>2412</v>
@@ -18613,7 +18637,7 @@
         <v>232</v>
       </c>
       <c r="I153" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="J153" t="s">
         <v>2412</v>
@@ -18741,7 +18765,7 @@
         <v>2356</v>
       </c>
       <c r="I157" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="J157" t="s">
         <v>2412</v>
@@ -18773,7 +18797,7 @@
         <v>2357</v>
       </c>
       <c r="I158" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="J158" t="s">
         <v>2412</v>
@@ -18837,7 +18861,7 @@
         <v>243</v>
       </c>
       <c r="I160" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="J160" t="s">
         <v>2412</v>
@@ -18933,7 +18957,7 @@
         <v>248</v>
       </c>
       <c r="I163" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="J163" t="s">
         <v>2412</v>
@@ -19061,7 +19085,7 @@
         <v>254</v>
       </c>
       <c r="I167" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="J167" t="s">
         <v>2412</v>
@@ -19125,7 +19149,7 @@
         <v>256</v>
       </c>
       <c r="I169" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="J169" t="s">
         <v>2412</v>
@@ -19157,7 +19181,7 @@
         <v>2359</v>
       </c>
       <c r="I170" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="J170" t="s">
         <v>2412</v>
@@ -19253,7 +19277,7 @@
         <v>292</v>
       </c>
       <c r="I173" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="J173" t="s">
         <v>2412</v>
@@ -19381,7 +19405,7 @@
         <v>297</v>
       </c>
       <c r="I177" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="J177" t="s">
         <v>2412</v>
@@ -19413,7 +19437,7 @@
         <v>299</v>
       </c>
       <c r="I178" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="J178" t="s">
         <v>2412</v>
@@ -19445,7 +19469,7 @@
         <v>300</v>
       </c>
       <c r="I179" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="J179" t="s">
         <v>2412</v>
@@ -19573,7 +19597,7 @@
         <v>304</v>
       </c>
       <c r="I183" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="J183" t="s">
         <v>2412</v>
@@ -19605,7 +19629,7 @@
         <v>307</v>
       </c>
       <c r="I184" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="J184" t="s">
         <v>2412</v>
@@ -19637,7 +19661,7 @@
         <v>310</v>
       </c>
       <c r="I185" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="J185" t="s">
         <v>2412</v>
@@ -19669,7 +19693,7 @@
         <v>2362</v>
       </c>
       <c r="I186" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="J186" t="s">
         <v>2412</v>
@@ -19733,7 +19757,7 @@
         <v>2364</v>
       </c>
       <c r="I188" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="J188" t="s">
         <v>2412</v>
@@ -19797,7 +19821,7 @@
         <v>315</v>
       </c>
       <c r="I190" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="J190" t="s">
         <v>2412</v>
@@ -19861,7 +19885,7 @@
         <v>319</v>
       </c>
       <c r="I192" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="J192" t="s">
         <v>2412</v>
@@ -19925,7 +19949,7 @@
         <v>321</v>
       </c>
       <c r="I194" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="J194" t="s">
         <v>2412</v>
@@ -20021,7 +20045,7 @@
         <v>260</v>
       </c>
       <c r="I197" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="J197" t="s">
         <v>2412</v>
@@ -20085,7 +20109,7 @@
         <v>326</v>
       </c>
       <c r="I199" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="J199" t="s">
         <v>2412</v>
@@ -20149,7 +20173,7 @@
         <v>262</v>
       </c>
       <c r="I201" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="J201" t="s">
         <v>2412</v>
@@ -20245,7 +20269,7 @@
         <v>2368</v>
       </c>
       <c r="I204" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="J204" t="s">
         <v>2412</v>
@@ -20725,7 +20749,7 @@
         <v>286</v>
       </c>
       <c r="I219" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="J219" t="s">
         <v>2412</v>
@@ -20821,7 +20845,7 @@
         <v>345</v>
       </c>
       <c r="I222" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="J222" t="s">
         <v>1419</v>
@@ -20853,7 +20877,7 @@
         <v>346</v>
       </c>
       <c r="I223" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="J223" t="s">
         <v>1419</v>
@@ -20885,7 +20909,7 @@
         <v>349</v>
       </c>
       <c r="I224" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="J224" t="s">
         <v>1419</v>
@@ -21077,7 +21101,7 @@
         <v>358</v>
       </c>
       <c r="I230" t="s">
-        <v>2070</v>
+        <v>1333</v>
       </c>
       <c r="J230" t="s">
         <v>1419</v>
@@ -21109,7 +21133,7 @@
         <v>359</v>
       </c>
       <c r="I231" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="J231" t="s">
         <v>1419</v>
@@ -21269,7 +21293,7 @@
         <v>364</v>
       </c>
       <c r="I236" t="s">
-        <v>1508</v>
+        <v>991</v>
       </c>
       <c r="J236" t="s">
         <v>1419</v>
@@ -21365,7 +21389,7 @@
         <v>371</v>
       </c>
       <c r="I239" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="J239" t="s">
         <v>1419</v>
@@ -21493,7 +21517,7 @@
         <v>2374</v>
       </c>
       <c r="I243" t="s">
-        <v>2374</v>
+        <v>3031</v>
       </c>
       <c r="J243" t="s">
         <v>1419</v>
@@ -21525,7 +21549,7 @@
         <v>379</v>
       </c>
       <c r="I244" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="J244" t="s">
         <v>1419</v>
@@ -21557,7 +21581,7 @@
         <v>2375</v>
       </c>
       <c r="I245" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="J245" t="s">
         <v>1419</v>
@@ -21653,7 +21677,7 @@
         <v>384</v>
       </c>
       <c r="I248" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="J248" t="s">
         <v>1419</v>
@@ -21781,7 +21805,7 @@
         <v>651</v>
       </c>
       <c r="I252" t="s">
-        <v>2923</v>
+        <v>651</v>
       </c>
       <c r="J252" t="s">
         <v>1419</v>
@@ -21813,7 +21837,7 @@
         <v>387</v>
       </c>
       <c r="I253" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="J253" t="s">
         <v>1419</v>
@@ -21845,7 +21869,7 @@
         <v>2380</v>
       </c>
       <c r="I254" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="J254" t="s">
         <v>1419</v>
@@ -21877,7 +21901,7 @@
         <v>391</v>
       </c>
       <c r="I255" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="J255" t="s">
         <v>1419</v>
@@ -22069,7 +22093,7 @@
         <v>501</v>
       </c>
       <c r="I261" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="J261" t="s">
         <v>2413</v>
@@ -22133,7 +22157,7 @@
         <v>457</v>
       </c>
       <c r="I263" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="J263" t="s">
         <v>2413</v>
@@ -22197,7 +22221,7 @@
         <v>461</v>
       </c>
       <c r="I265" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="J265" t="s">
         <v>2413</v>
@@ -22229,7 +22253,7 @@
         <v>462</v>
       </c>
       <c r="I266" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="J266" t="s">
         <v>2413</v>
@@ -22261,7 +22285,7 @@
         <v>463</v>
       </c>
       <c r="I267" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="J267" t="s">
         <v>2413</v>
@@ -22293,7 +22317,7 @@
         <v>467</v>
       </c>
       <c r="I268" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="J268" t="s">
         <v>2413</v>
@@ -22325,7 +22349,7 @@
         <v>470</v>
       </c>
       <c r="I269" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="J269" t="s">
         <v>2413</v>
@@ -22389,7 +22413,7 @@
         <v>473</v>
       </c>
       <c r="I271" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="J271" t="s">
         <v>2413</v>
@@ -22421,7 +22445,7 @@
         <v>475</v>
       </c>
       <c r="I272" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="J272" t="s">
         <v>2413</v>
@@ -22453,7 +22477,7 @@
         <v>476</v>
       </c>
       <c r="I273" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="J273" t="s">
         <v>2413</v>
@@ -22485,7 +22509,7 @@
         <v>478</v>
       </c>
       <c r="I274" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="J274" t="s">
         <v>2413</v>
@@ -22549,7 +22573,7 @@
         <v>482</v>
       </c>
       <c r="I276" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="J276" t="s">
         <v>2413</v>
@@ -22581,7 +22605,7 @@
         <v>483</v>
       </c>
       <c r="I277" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="J277" t="s">
         <v>2413</v>
@@ -22645,7 +22669,7 @@
         <v>485</v>
       </c>
       <c r="I279" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="J279" t="s">
         <v>2413</v>
@@ -22677,7 +22701,7 @@
         <v>486</v>
       </c>
       <c r="I280" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="J280" t="s">
         <v>2413</v>
@@ -22709,7 +22733,7 @@
         <v>487</v>
       </c>
       <c r="I281" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="J281" t="s">
         <v>2413</v>
@@ -22773,7 +22797,7 @@
         <v>490</v>
       </c>
       <c r="I283" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="J283" t="s">
         <v>2413</v>
@@ -22805,7 +22829,7 @@
         <v>2386</v>
       </c>
       <c r="I284" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="J284" t="s">
         <v>2413</v>
@@ -22869,7 +22893,7 @@
         <v>399</v>
       </c>
       <c r="I286" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="J286" t="s">
         <v>2413</v>
@@ -22901,7 +22925,7 @@
         <v>401</v>
       </c>
       <c r="I287" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="J287" t="s">
         <v>2413</v>
@@ -23029,7 +23053,7 @@
         <v>408</v>
       </c>
       <c r="I291" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="J291" t="s">
         <v>2413</v>
@@ -23061,7 +23085,7 @@
         <v>410</v>
       </c>
       <c r="I292" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="J292" t="s">
         <v>2413</v>
@@ -23093,7 +23117,7 @@
         <v>411</v>
       </c>
       <c r="I293" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="J293" t="s">
         <v>2413</v>
@@ -23125,7 +23149,7 @@
         <v>2388</v>
       </c>
       <c r="I294" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="J294" t="s">
         <v>2413</v>
@@ -23157,7 +23181,7 @@
         <v>412</v>
       </c>
       <c r="I295" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="J295" t="s">
         <v>2413</v>
@@ -23189,7 +23213,7 @@
         <v>415</v>
       </c>
       <c r="I296" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="J296" t="s">
         <v>2413</v>
@@ -23221,7 +23245,7 @@
         <v>418</v>
       </c>
       <c r="I297" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="J297" t="s">
         <v>2413</v>
@@ -23285,7 +23309,7 @@
         <v>422</v>
       </c>
       <c r="I299" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="J299" t="s">
         <v>2413</v>
@@ -23317,7 +23341,7 @@
         <v>424</v>
       </c>
       <c r="I300" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="J300" t="s">
         <v>2413</v>
@@ -23349,7 +23373,7 @@
         <v>425</v>
       </c>
       <c r="I301" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="J301" t="s">
         <v>2413</v>
@@ -23381,7 +23405,7 @@
         <v>426</v>
       </c>
       <c r="I302" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="J302" t="s">
         <v>2413</v>
@@ -23413,7 +23437,7 @@
         <v>429</v>
       </c>
       <c r="I303" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="J303" t="s">
         <v>2413</v>
@@ -23445,7 +23469,7 @@
         <v>432</v>
       </c>
       <c r="I304" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="J304" t="s">
         <v>2413</v>
@@ -23477,7 +23501,7 @@
         <v>434</v>
       </c>
       <c r="I305" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="J305" t="s">
         <v>2413</v>
@@ -23509,7 +23533,7 @@
         <v>2390</v>
       </c>
       <c r="I306" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="J306" t="s">
         <v>2413</v>
@@ -23573,7 +23597,7 @@
         <v>439</v>
       </c>
       <c r="I308" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="J308" t="s">
         <v>2413</v>
@@ -23605,7 +23629,7 @@
         <v>440</v>
       </c>
       <c r="I309" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="J309" t="s">
         <v>2413</v>
@@ -23637,7 +23661,7 @@
         <v>442</v>
       </c>
       <c r="I310" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="J310" t="s">
         <v>2413</v>
@@ -23669,7 +23693,7 @@
         <v>444</v>
       </c>
       <c r="I311" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="J311" t="s">
         <v>2413</v>
@@ -23701,7 +23725,7 @@
         <v>445</v>
       </c>
       <c r="I312" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="J312" t="s">
         <v>2413</v>
@@ -23733,7 +23757,7 @@
         <v>446</v>
       </c>
       <c r="I313" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="J313" t="s">
         <v>2413</v>
@@ -23765,7 +23789,7 @@
         <v>2392</v>
       </c>
       <c r="I314" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="J314" t="s">
         <v>2413</v>
@@ -23797,7 +23821,7 @@
         <v>449</v>
       </c>
       <c r="I315" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="J315" t="s">
         <v>2413</v>
@@ -23861,7 +23885,7 @@
         <v>504</v>
       </c>
       <c r="I317" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="J317" t="s">
         <v>2413</v>
@@ -23893,7 +23917,7 @@
         <v>568</v>
       </c>
       <c r="I318" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="J318" t="s">
         <v>1419</v>
@@ -23957,7 +23981,7 @@
         <v>572</v>
       </c>
       <c r="I320" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="J320" t="s">
         <v>1419</v>
@@ -24053,7 +24077,7 @@
         <v>578</v>
       </c>
       <c r="I323" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="J323" t="s">
         <v>1419</v>
@@ -24117,7 +24141,7 @@
         <v>2393</v>
       </c>
       <c r="I325" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="J325" t="s">
         <v>1419</v>
@@ -24149,7 +24173,7 @@
         <v>2394</v>
       </c>
       <c r="I326" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="J326" t="s">
         <v>2413</v>
@@ -24213,7 +24237,7 @@
         <v>509</v>
       </c>
       <c r="I328" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="J328" t="s">
         <v>2413</v>
@@ -24245,7 +24269,7 @@
         <v>2395</v>
       </c>
       <c r="I329" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="J329" t="s">
         <v>2413</v>
@@ -24277,7 +24301,7 @@
         <v>512</v>
       </c>
       <c r="I330" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="J330" t="s">
         <v>2413</v>
@@ -24373,7 +24397,7 @@
         <v>2397</v>
       </c>
       <c r="I333" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="J333" t="s">
         <v>2413</v>
@@ -24437,7 +24461,7 @@
         <v>519</v>
       </c>
       <c r="I335" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="J335" t="s">
         <v>2413</v>
@@ -24469,7 +24493,7 @@
         <v>521</v>
       </c>
       <c r="I336" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="J336" t="s">
         <v>2413</v>
@@ -24501,7 +24525,7 @@
         <v>522</v>
       </c>
       <c r="I337" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="J337" t="s">
         <v>2413</v>
@@ -24629,7 +24653,7 @@
         <v>530</v>
       </c>
       <c r="I341" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="J341" t="s">
         <v>2413</v>
@@ -24661,7 +24685,7 @@
         <v>531</v>
       </c>
       <c r="I342" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="J342" t="s">
         <v>2413</v>
@@ -24693,7 +24717,7 @@
         <v>532</v>
       </c>
       <c r="I343" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="J343" t="s">
         <v>2413</v>
@@ -24725,7 +24749,7 @@
         <v>533</v>
       </c>
       <c r="I344" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="J344" t="s">
         <v>2413</v>
@@ -24757,7 +24781,7 @@
         <v>536</v>
       </c>
       <c r="I345" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="J345" t="s">
         <v>2413</v>
@@ -24789,7 +24813,7 @@
         <v>538</v>
       </c>
       <c r="I346" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="J346" t="s">
         <v>2413</v>
@@ -24853,7 +24877,7 @@
         <v>2275</v>
       </c>
       <c r="I348" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="J348" t="s">
         <v>2413</v>
@@ -24885,7 +24909,7 @@
         <v>545</v>
       </c>
       <c r="I349" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="J349" t="s">
         <v>2413</v>
@@ -24917,7 +24941,7 @@
         <v>546</v>
       </c>
       <c r="I350" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="J350" t="s">
         <v>2413</v>
@@ -24981,7 +25005,7 @@
         <v>2321</v>
       </c>
       <c r="I352" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="J352" t="s">
         <v>2413</v>
@@ -25045,7 +25069,7 @@
         <v>555</v>
       </c>
       <c r="I354" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="J354" t="s">
         <v>2413</v>
@@ -25077,7 +25101,7 @@
         <v>2399</v>
       </c>
       <c r="I355" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="J355" t="s">
         <v>2413</v>
@@ -25173,7 +25197,7 @@
         <v>2400</v>
       </c>
       <c r="I358" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="J358" t="s">
         <v>2413</v>
@@ -25301,7 +25325,7 @@
         <v>567</v>
       </c>
       <c r="I362" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="J362" t="s">
         <v>2413</v>
@@ -25333,7 +25357,7 @@
         <v>580</v>
       </c>
       <c r="I363" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="J363" t="s">
         <v>2414</v>
@@ -25397,7 +25421,7 @@
         <v>584</v>
       </c>
       <c r="I365" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="J365" t="s">
         <v>2414</v>
@@ -25525,7 +25549,7 @@
         <v>588</v>
       </c>
       <c r="I369" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="J369" t="s">
         <v>2414</v>
@@ -25589,7 +25613,7 @@
         <v>590</v>
       </c>
       <c r="I371" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="J371" t="s">
         <v>2414</v>
@@ -25653,7 +25677,7 @@
         <v>592</v>
       </c>
       <c r="I373" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="J373" t="s">
         <v>2414</v>
@@ -25749,7 +25773,7 @@
         <v>595</v>
       </c>
       <c r="I376" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="J376" t="s">
         <v>2414</v>
@@ -25781,7 +25805,7 @@
         <v>596</v>
       </c>
       <c r="I377" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="J377" t="s">
         <v>2414</v>
@@ -25813,7 +25837,7 @@
         <v>597</v>
       </c>
       <c r="I378" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="J378" t="s">
         <v>2414</v>
@@ -26037,7 +26061,7 @@
         <v>604</v>
       </c>
       <c r="I385" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="J385" t="s">
         <v>2414</v>
@@ -26197,7 +26221,7 @@
         <v>616</v>
       </c>
       <c r="I390" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="J390" t="s">
         <v>2414</v>
@@ -26229,7 +26253,7 @@
         <v>617</v>
       </c>
       <c r="I391" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="J391" t="s">
         <v>2414</v>
@@ -26261,7 +26285,7 @@
         <v>618</v>
       </c>
       <c r="I392" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="J392" t="s">
         <v>2414</v>
@@ -26293,7 +26317,7 @@
         <v>619</v>
       </c>
       <c r="I393" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="J393" t="s">
         <v>2414</v>
@@ -26325,7 +26349,7 @@
         <v>620</v>
       </c>
       <c r="I394" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="J394" t="s">
         <v>2414</v>
@@ -26357,7 +26381,7 @@
         <v>621</v>
       </c>
       <c r="I395" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="J395" t="s">
         <v>2414</v>
@@ -26389,7 +26413,7 @@
         <v>622</v>
       </c>
       <c r="I396" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="J396" t="s">
         <v>2414</v>
@@ -26421,7 +26445,7 @@
         <v>623</v>
       </c>
       <c r="I397" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="J397" t="s">
         <v>2414</v>
@@ -26485,7 +26509,7 @@
         <v>626</v>
       </c>
       <c r="I399" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="J399" t="s">
         <v>2414</v>
@@ -26517,7 +26541,7 @@
         <v>2403</v>
       </c>
       <c r="I400" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="J400" t="s">
         <v>2414</v>
@@ -26549,7 +26573,7 @@
         <v>628</v>
       </c>
       <c r="I401" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="J401" t="s">
         <v>2414</v>
@@ -26645,7 +26669,7 @@
         <v>636</v>
       </c>
       <c r="I404" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="J404" t="s">
         <v>2414</v>
@@ -26805,7 +26829,7 @@
         <v>643</v>
       </c>
       <c r="I409" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="J409" t="s">
         <v>2414</v>
@@ -26869,7 +26893,7 @@
         <v>649</v>
       </c>
       <c r="I411" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="J411" t="s">
         <v>2414</v>
@@ -26901,7 +26925,7 @@
         <v>650</v>
       </c>
       <c r="I412" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="J412" t="s">
         <v>2414</v>
@@ -26933,7 +26957,7 @@
         <v>652</v>
       </c>
       <c r="I413" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="J413" t="s">
         <v>2414</v>
@@ -26965,7 +26989,7 @@
         <v>653</v>
       </c>
       <c r="I414" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="J414" t="s">
         <v>2414</v>
@@ -26997,7 +27021,7 @@
         <v>2404</v>
       </c>
       <c r="I415" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="J415" t="s">
         <v>2414</v>
@@ -27029,7 +27053,7 @@
         <v>657</v>
       </c>
       <c r="I416" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="J416" t="s">
         <v>2414</v>
@@ -27061,7 +27085,7 @@
         <v>658</v>
       </c>
       <c r="I417" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="J417" t="s">
         <v>2414</v>
@@ -27093,7 +27117,7 @@
         <v>659</v>
       </c>
       <c r="I418" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="J418" t="s">
         <v>2414</v>
@@ -27125,7 +27149,7 @@
         <v>660</v>
       </c>
       <c r="I419" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="J419" t="s">
         <v>2414</v>
@@ -27157,7 +27181,7 @@
         <v>661</v>
       </c>
       <c r="I420" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="J420" t="s">
         <v>2414</v>
@@ -27189,7 +27213,7 @@
         <v>662</v>
       </c>
       <c r="I421" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="J421" t="s">
         <v>2414</v>
@@ -27253,7 +27277,7 @@
         <v>665</v>
       </c>
       <c r="I423" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="J423" t="s">
         <v>2414</v>
@@ -27285,7 +27309,7 @@
         <v>666</v>
       </c>
       <c r="I424" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="J424" t="s">
         <v>2414</v>
@@ -27317,7 +27341,7 @@
         <v>667</v>
       </c>
       <c r="I425" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="J425" t="s">
         <v>2414</v>
@@ -27349,7 +27373,7 @@
         <v>669</v>
       </c>
       <c r="I426" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="J426" t="s">
         <v>2414</v>
@@ -27413,7 +27437,7 @@
         <v>633</v>
       </c>
       <c r="I428" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="J428" t="s">
         <v>2414</v>
@@ -27445,7 +27469,7 @@
         <v>638</v>
       </c>
       <c r="I429" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="J429" t="s">
         <v>2414</v>

--- a/raw_data/Spanish_WG/[Spanish_WG].xlsx
+++ b/raw_data/Spanish_WG/[Spanish_WG].xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25160" windowHeight="13780" tabRatio="988"/>
@@ -9713,8 +9713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="H349" sqref="H349"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="K281" sqref="K281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21057,7 +21057,7 @@
         <v>1427</v>
       </c>
       <c r="H420" t="s">
-        <v>660</v>
+        <v>3015</v>
       </c>
       <c r="J420" s="5"/>
     </row>
@@ -49969,7 +49969,7 @@
         <v>0</v>
       </c>
       <c r="H706" s="4" t="str">
-        <f t="shared" ref="H706:H769" si="35">IF(I706=I705,"FLAG","")</f>
+        <f t="shared" ref="H706:H768" si="35">IF(I706=I705,"FLAG","")</f>
         <v/>
       </c>
       <c r="I706" s="11" t="s">
